--- a/analyze/Charts.xlsx
+++ b/analyze/Charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASE2022\UsabilityTest\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F25F8F1-F8A2-4369-8B17-6513AE670343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012983BD-7508-4F9C-BDA9-9594D7910278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/analyze/Charts.xlsx
+++ b/analyze/Charts.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASE2022\UsabilityTest\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012983BD-7508-4F9C-BDA9-9594D7910278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0991B4B3-EFFB-47D2-B555-FD2586A4AB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Duration-LoC-Java" sheetId="4" r:id="rId1"/>
-    <sheet name="DS-Java" sheetId="1" r:id="rId2"/>
-    <sheet name="Duration-LoC-C++" sheetId="12" r:id="rId3"/>
-    <sheet name="DS-C++" sheetId="9" r:id="rId4"/>
-    <sheet name="Duration-LoC-Python" sheetId="11" r:id="rId5"/>
-    <sheet name="DS-Python" sheetId="10" r:id="rId6"/>
+    <sheet name="Time-LoC-Java" sheetId="4" r:id="rId1"/>
+    <sheet name="Memory-LoC-Java" sheetId="13" r:id="rId2"/>
+    <sheet name="DS-Java" sheetId="1" r:id="rId3"/>
+    <sheet name="Duration-LoC-C++" sheetId="12" r:id="rId4"/>
+    <sheet name="DS-C++" sheetId="9" r:id="rId5"/>
+    <sheet name="Duration-LoC-Python" sheetId="11" r:id="rId6"/>
+    <sheet name="DS-Python" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="297">
   <si>
     <t>java-design-patterns</t>
   </si>
@@ -922,6 +923,17 @@
   </si>
   <si>
     <t>alphafold</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>timeout=420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>helpers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -970,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -978,7 +990,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,7 +1083,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS-Java'!$B$1:$B$99</c:f>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1218,130 +1229,130 @@
                   <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1206287</c:v>
+                  <c:v>7237</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7237</c:v>
+                  <c:v>92790</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92790</c:v>
+                  <c:v>13208</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13208</c:v>
+                  <c:v>36989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36989</c:v>
+                  <c:v>30363</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30363</c:v>
+                  <c:v>42244</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42244</c:v>
+                  <c:v>4082</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4082</c:v>
+                  <c:v>17592</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17592</c:v>
+                  <c:v>87074</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87074</c:v>
+                  <c:v>11866</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11866</c:v>
+                  <c:v>3884</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3884</c:v>
+                  <c:v>56806</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56806</c:v>
+                  <c:v>93128</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>93128</c:v>
+                  <c:v>33508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33508</c:v>
+                  <c:v>8527</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8527</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44562</c:v>
+                  <c:v>23731</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23731</c:v>
+                  <c:v>133832</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>133832</c:v>
+                  <c:v>57838</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57838</c:v>
+                  <c:v>27010</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27010</c:v>
+                  <c:v>23738</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23738</c:v>
+                  <c:v>19716</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19716</c:v>
+                  <c:v>18440</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18440</c:v>
+                  <c:v>536713</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>536713</c:v>
+                  <c:v>30825</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30825</c:v>
+                  <c:v>350643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>350643</c:v>
+                  <c:v>3292</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3292</c:v>
+                  <c:v>32241</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>32241</c:v>
+                  <c:v>35698</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35698</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>38169</c:v>
+                  <c:v>88506</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>88506</c:v>
+                  <c:v>7901</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7901</c:v>
+                  <c:v>15864</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15864</c:v>
+                  <c:v>72154</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>72154</c:v>
+                  <c:v>12659</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12659</c:v>
+                  <c:v>466846</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>466846</c:v>
+                  <c:v>14940</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14940</c:v>
+                  <c:v>116459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>116459</c:v>
+                  <c:v>13112</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13112</c:v>
+                  <c:v>8666</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8666</c:v>
+                  <c:v>7065</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7065</c:v>
+                  <c:v>728553</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>668337</c:v>
@@ -1369,297 +1380,297 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS-Java'!$C$1:$C$99</c:f>
+              <c:f>'DS-Java'!$C$1:$C$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>4.4484748840331996</c:v>
+                  <c:v>4.6201651096343896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.793130397796601</c:v>
+                  <c:v>15.2471714019775</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2260706424713099</c:v>
+                  <c:v>4.5620009899139404</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.515000581741301</c:v>
+                  <c:v>24.4790291786193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.596998691558801</c:v>
+                  <c:v>12.828542232513399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7449975013732901</c:v>
+                  <c:v>2.7222504615783598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9109809398651101</c:v>
+                  <c:v>2.3870766162872301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7820730209350497</c:v>
+                  <c:v>5.7400567531585596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6849679946899401</c:v>
+                  <c:v>3.9240307807922301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.45694804191589</c:v>
+                  <c:v>7.0860493183135898</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9189965724945002</c:v>
+                  <c:v>3.9070355892181299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.947107553482001</c:v>
+                  <c:v>15.873779535293499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9399952888488698</c:v>
+                  <c:v>4.1650981903076101</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3165767192840501</c:v>
+                  <c:v>1.3290438652038501</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6982254981994602</c:v>
+                  <c:v>5.1153819561004603</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.819634437561</c:v>
+                  <c:v>19.8540232181549</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.790135860443101</c:v>
+                  <c:v>16.963026523589999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3520658016204798</c:v>
+                  <c:v>2.41213726997375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.82501220703125</c:v>
+                  <c:v>1.82807421684265</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.8112943172454798</c:v>
+                  <c:v>10.537084579467701</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.34898877143859</c:v>
+                  <c:v>1.34398961067199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1670715808868399</c:v>
+                  <c:v>1.17509961128234</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.70000791549682</c:v>
+                  <c:v>2.7321856021881099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.96423292160034</c:v>
+                  <c:v>8.4470019340515101</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.1590449810028001</c:v>
+                  <c:v>2.2690129280090301</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9103517532348602</c:v>
+                  <c:v>3.14909791946411</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.14600729942321</c:v>
+                  <c:v>1.2259619235992401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5263283252716002</c:v>
+                  <c:v>5.8480267524719203</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2569997310638401</c:v>
+                  <c:v>4.3676197528839102</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8460445404052699</c:v>
+                  <c:v>9.1970977783203107</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.9459996223449</c:v>
+                  <c:v>17.521050453186</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.6159982681274396</c:v>
+                  <c:v>8.1745412349700892</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.6359698772430402</c:v>
+                  <c:v>3.6212410926818799</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.4860773086547798</c:v>
+                  <c:v>2.6000547409057599</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.0626764297485298</c:v>
+                  <c:v>8.4890687465667707</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.81200194358825</c:v>
+                  <c:v>1.7829954624176001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.298939704895</c:v>
+                  <c:v>15.6551530361175</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>21.464663982391301</c:v>
+                  <c:v>23.248540878295898</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11.698693037032999</c:v>
+                  <c:v>12.8847022056579</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.2840313911437899</c:v>
+                  <c:v>4.3161032199859601</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.5931131839752</c:v>
+                  <c:v>11.4679851531982</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>10.620004177093501</c:v>
+                  <c:v>8.2612740993499703</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.4591751098632804</c:v>
+                  <c:v>5.9384176731109601</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>27.835036754608101</c:v>
+                  <c:v>42.561461448669398</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1650943756103498</c:v>
+                  <c:v>2.2991485595703098</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.7449674606323198</c:v>
+                  <c:v>2.9400603771209699</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.83700084686279297</c:v>
+                  <c:v>0.81707668304443304</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.249176979064899</c:v>
+                  <c:v>1.7521891593933101</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.62906646728515</c:v>
+                  <c:v>6.1845326423645002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.7860224246978698</c:v>
+                  <c:v>2.0062947273254301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.98297047615051</c:v>
+                  <c:v>2.4369988441467201</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.573109627</c:v>
+                  <c:v>3.1360516548156698</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.9079999920000001</c:v>
+                  <c:v>3.9820873737335201</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.8199996949999999</c:v>
+                  <c:v>1.01215815544128</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.998047829</c:v>
+                  <c:v>2.4541978836059499</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4409999849999999</c:v>
+                  <c:v>4.3653383255004803</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6.1253395079999997</c:v>
+                  <c:v>2.0661559104919398</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.8951225279999999</c:v>
+                  <c:v>1.3370604515075599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2832596300000001</c:v>
+                  <c:v>4.2859981060027996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.934109211</c:v>
+                  <c:v>6.10404276847839</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0910122390000003</c:v>
+                  <c:v>3.0104053020477202</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3.1321504120000001</c:v>
+                  <c:v>1.6880118846893299</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.70799756050109</c:v>
+                  <c:v>4.0780305862426696</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.3509991168975803</c:v>
+                  <c:v>3.2141692638397199</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.0470006465911799</c:v>
+                  <c:v>6.63799977302551</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.9890067577362007</c:v>
+                  <c:v>5.2570695877075098</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.50695347785949</c:v>
+                  <c:v>3.3680994510650599</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.4979588985443102</c:v>
+                  <c:v>3.35199570655822</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.5290002822875901</c:v>
+                  <c:v>2.6085851192474299</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.5719628334045401</c:v>
+                  <c:v>2.49519443511962</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4459636211395201</c:v>
+                  <c:v>15.6722071170806</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>25.2412204742431</c:v>
+                  <c:v>3.6378617286682098</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.71994876861572</c:v>
+                  <c:v>12.918401956558199</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12.746997594833299</c:v>
+                  <c:v>1.2242734432220399</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.1970012187957699</c:v>
+                  <c:v>3.1002900600433301</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.25358533859252</c:v>
+                  <c:v>3.59800124168396</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.6300017833709699</c:v>
+                  <c:v>3.9180002212524401</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.15700030326843</c:v>
+                  <c:v>5.3220515251159597</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.5999999046325604</c:v>
+                  <c:v>1.68601751327514</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.6940000057220399</c:v>
+                  <c:v>2.9021201133728001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.9360001087188698</c:v>
+                  <c:v>5.7301974296569798</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.15699887275695</c:v>
+                  <c:v>1.8160643577575599</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.83699822425842</c:v>
+                  <c:v>14.0357272624969</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>13.690000295639001</c:v>
+                  <c:v>2.1170303821563698</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0909996032714799</c:v>
+                  <c:v>7.3989987373351997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.1140000820159903</c:v>
+                  <c:v>2.1841945648193302</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.3049666881561199</c:v>
+                  <c:v>1.6359999179839999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.5259642601013099</c:v>
+                  <c:v>1.6930015087127599</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.75696992874145</c:v>
+                  <c:v>31.9408729076385</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.7830357551574</c:v>
+                  <c:v>19.551340341567901</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.68807721138</c:v>
+                  <c:v>1.90443015098571</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.6592099666595401</c:v>
+                  <c:v>3.5522825717925999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.25500059127807</c:v>
+                  <c:v>1.30917048454284</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8710064888000399</c:v>
+                  <c:v>1.83504986763</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>10.9590101242065</c:v>
+                  <c:v>11.172178745269701</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9019973278045601</c:v>
+                  <c:v>1.9810495376586901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,7 +1728,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS-Java'!$B$1:$B$99</c:f>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -1863,130 +1874,130 @@
                   <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1206287</c:v>
+                  <c:v>7237</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7237</c:v>
+                  <c:v>92790</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92790</c:v>
+                  <c:v>13208</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13208</c:v>
+                  <c:v>36989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36989</c:v>
+                  <c:v>30363</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30363</c:v>
+                  <c:v>42244</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42244</c:v>
+                  <c:v>4082</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4082</c:v>
+                  <c:v>17592</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17592</c:v>
+                  <c:v>87074</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87074</c:v>
+                  <c:v>11866</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11866</c:v>
+                  <c:v>3884</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3884</c:v>
+                  <c:v>56806</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56806</c:v>
+                  <c:v>93128</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>93128</c:v>
+                  <c:v>33508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33508</c:v>
+                  <c:v>8527</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8527</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44562</c:v>
+                  <c:v>23731</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23731</c:v>
+                  <c:v>133832</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>133832</c:v>
+                  <c:v>57838</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57838</c:v>
+                  <c:v>27010</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27010</c:v>
+                  <c:v>23738</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23738</c:v>
+                  <c:v>19716</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19716</c:v>
+                  <c:v>18440</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18440</c:v>
+                  <c:v>536713</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>536713</c:v>
+                  <c:v>30825</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30825</c:v>
+                  <c:v>350643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>350643</c:v>
+                  <c:v>3292</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3292</c:v>
+                  <c:v>32241</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>32241</c:v>
+                  <c:v>35698</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35698</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>38169</c:v>
+                  <c:v>88506</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>88506</c:v>
+                  <c:v>7901</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7901</c:v>
+                  <c:v>15864</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15864</c:v>
+                  <c:v>72154</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>72154</c:v>
+                  <c:v>12659</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12659</c:v>
+                  <c:v>466846</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>466846</c:v>
+                  <c:v>14940</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14940</c:v>
+                  <c:v>116459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>116459</c:v>
+                  <c:v>13112</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13112</c:v>
+                  <c:v>8666</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8666</c:v>
+                  <c:v>7065</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7065</c:v>
+                  <c:v>728553</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>668337</c:v>
@@ -2014,297 +2025,297 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS-Java'!$D$1:$D$99</c:f>
+              <c:f>'DS-Java'!$E$1:$E$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>14.3192636966705</c:v>
+                  <c:v>18.3157699108123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>123.358195781707</c:v>
+                  <c:v>150.89145994186401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.021467924117999</c:v>
+                  <c:v>41.066535949707003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.227020263671804</c:v>
+                  <c:v>129.219319105148</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196.06032943725501</c:v>
+                  <c:v>247.646825075149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.669294834136901</c:v>
+                  <c:v>12.350563526153501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3940036296844394</c:v>
+                  <c:v>8.6801328659057599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31.3174533843994</c:v>
+                  <c:v>31.9787578582763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.679162502288801</c:v>
+                  <c:v>20.0257534980773</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.7891972064971</c:v>
+                  <c:v>40.258010864257798</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.080985546112</c:v>
+                  <c:v>21.290913581848098</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.864191293716402</c:v>
+                  <c:v>130.09212756156899</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.4242479801177</c:v>
+                  <c:v>20.108232259750299</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8753681182861301</c:v>
+                  <c:v>3.1080553531646702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.866757392883301</c:v>
+                  <c:v>24.6168386936187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>121.14888215065</c:v>
+                  <c:v>176.19479060173001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>106.707696199417</c:v>
+                  <c:v>133.69736790657001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3320436477661097</c:v>
+                  <c:v>11.7507741451263</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7345130443572998</c:v>
+                  <c:v>5.94315433502197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59.383727312087998</c:v>
+                  <c:v>76.992202281951904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8489990234375</c:v>
+                  <c:v>3.4851078987121502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6041088104247998</c:v>
+                  <c:v>2.9456799030303902</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1654562950134206</c:v>
+                  <c:v>9.2209358215331996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.430684804916297</c:v>
+                  <c:v>47.455721855163503</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.9495131969451904</c:v>
+                  <c:v>9.0211672782897896</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.7475781440734792</c:v>
+                  <c:v>10.846292018890299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.62299132347106</c:v>
+                  <c:v>2.9803180694579998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.338762998580901</c:v>
+                  <c:v>34.269833803176802</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.795311927795399</c:v>
+                  <c:v>24.525996446609401</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42.774621963500898</c:v>
+                  <c:v>56.362169027328399</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>82.927614450454698</c:v>
+                  <c:v>112.85742855072</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>39.611913442611602</c:v>
+                  <c:v>59.231004714965799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.1024384498596</c:v>
+                  <c:v>13.7480001449584</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.4956862926483101</c:v>
+                  <c:v>9.2183957099914497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>74.058044433593693</c:v>
+                  <c:v>90.052615880966101</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.4199993610382</c:v>
+                  <c:v>5.2016093730926496</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>106.982081890106</c:v>
+                  <c:v>133.98761296272201</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>259.66685605049099</c:v>
+                  <c:v>311.68511199951098</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>70.967564821243201</c:v>
+                  <c:v>88.794915676116901</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>20.0549926757812</c:v>
+                  <c:v>25.943625450134199</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77.694435834884601</c:v>
+                  <c:v>95.589709520339895</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>57.838377714157097</c:v>
+                  <c:v>87.297879934310899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.662456035613999</c:v>
+                  <c:v>32.795356035232501</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>233.25651764869599</c:v>
+                  <c:v>293.46451139449999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.10113477706909</c:v>
+                  <c:v>6.5275714397430402</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10.6117038726806</c:v>
+                  <c:v>13.535639047622601</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4300570487976001</c:v>
+                  <c:v>1.62095999717712</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>403.85255193710299</c:v>
+                  <c:v>4.6111826896667401</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.61109399795532</c:v>
+                  <c:v>38.0638298988342</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>28.609064102172798</c:v>
+                  <c:v>5.9542734622955296</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.6849951744079501</c:v>
+                  <c:v>15.3409886360168</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12.20331097</c:v>
+                  <c:v>18.000104188919</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.47377968</c:v>
+                  <c:v>20.647779941558799</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>15.87131381</c:v>
+                  <c:v>4.0745427608489901</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0914087299999999</c:v>
+                  <c:v>8.1764683723449707</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6.0872344969999999</c:v>
+                  <c:v>42.8673095703125</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>35.550877810000003</c:v>
+                  <c:v>6.4741349220275799</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.3217663760000002</c:v>
+                  <c:v>2.8460123538970898</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6242599489999998</c:v>
+                  <c:v>24.787712335586502</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>19.355401990000001</c:v>
+                  <c:v>36.859033346176098</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>27.560915229999999</c:v>
+                  <c:v>20.265918970108</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>14.709585669999999</c:v>
+                  <c:v>5.31634068489074</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3230001926422101</c:v>
+                  <c:v>18.889749050140299</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>14.9420142173767</c:v>
+                  <c:v>9.9562385082244802</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.3419981002807599</c:v>
+                  <c:v>55.554232120513902</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43.514152526855398</c:v>
+                  <c:v>23.509912014007501</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.346002340316701</c:v>
+                  <c:v>12.5509264469146</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.539999961853001</c:v>
+                  <c:v>11.6774771213531</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.7789998054504395</c:v>
+                  <c:v>10.653274059295599</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.7275850772857595</c:v>
+                  <c:v>8.3690016269683802</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.8865795135498002</c:v>
+                  <c:v>238.251750707626</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>197.104053497314</c:v>
+                  <c:v>18.608005762100198</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.439436435699401</c:v>
+                  <c:v>144.70676159858701</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>109.625307083129</c:v>
+                  <c:v>2.5192413330078098</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.2150001525878902</c:v>
+                  <c:v>14.5892524719238</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.7610006332397</c:v>
+                  <c:v>15.563873529434201</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.741996526718101</c:v>
+                  <c:v>17.0148508548736</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.256000280380199</c:v>
+                  <c:v>54.401310920715297</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33.805386066436697</c:v>
+                  <c:v>9.3216531276702792</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.3050000667572004</c:v>
+                  <c:v>12.429146528244001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.3039999008178702</c:v>
+                  <c:v>28.3952457904815</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>22.219699859619102</c:v>
+                  <c:v>6.7992877960204998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.9229996204376203</c:v>
+                  <c:v>164.78805088996799</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>138.74384546279899</c:v>
+                  <c:v>7.0082340240478498</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.7901923656463596</c:v>
+                  <c:v>45.750847578048699</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>37.234102725982602</c:v>
+                  <c:v>6.9009931087493896</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.6980009078979403</c:v>
+                  <c:v>5.0266683101653999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.2151293754577601</c:v>
+                  <c:v>4.4439985752105704</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.8109998703002899</c:v>
+                  <c:v>253.155374526977</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>251.74808621406501</c:v>
+                  <c:v>265.39256882667502</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.9639484882354701</c:v>
+                  <c:v>7.4088635444641104</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>14.9439918994903</c:v>
+                  <c:v>14.513509988784699</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.6579992771148602</c:v>
+                  <c:v>3.40801978111267</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.4039924144744802</c:v>
+                  <c:v>6.1472885608673096</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>87.387968301773</c:v>
+                  <c:v>82.935874223709106</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.4210021495819003</c:v>
+                  <c:v>5.1688573360443097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,7 +2373,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'DS-Java'!$B$1:$B$99</c:f>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2508,130 +2519,130 @@
                   <c:v>1386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1206287</c:v>
+                  <c:v>7237</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7237</c:v>
+                  <c:v>92790</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>92790</c:v>
+                  <c:v>13208</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13208</c:v>
+                  <c:v>36989</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>36989</c:v>
+                  <c:v>30363</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>30363</c:v>
+                  <c:v>42244</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42244</c:v>
+                  <c:v>4082</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4082</c:v>
+                  <c:v>17592</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>17592</c:v>
+                  <c:v>87074</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>87074</c:v>
+                  <c:v>11866</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11866</c:v>
+                  <c:v>3884</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3884</c:v>
+                  <c:v>56806</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>56806</c:v>
+                  <c:v>93128</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>93128</c:v>
+                  <c:v>33508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>33508</c:v>
+                  <c:v>8527</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8527</c:v>
+                  <c:v>44562</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44562</c:v>
+                  <c:v>23731</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>23731</c:v>
+                  <c:v>133832</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>133832</c:v>
+                  <c:v>57838</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>57838</c:v>
+                  <c:v>27010</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>27010</c:v>
+                  <c:v>23738</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>23738</c:v>
+                  <c:v>19716</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>19716</c:v>
+                  <c:v>18440</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18440</c:v>
+                  <c:v>536713</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>536713</c:v>
+                  <c:v>30825</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30825</c:v>
+                  <c:v>350643</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>350643</c:v>
+                  <c:v>3292</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3292</c:v>
+                  <c:v>32241</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>32241</c:v>
+                  <c:v>35698</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>35698</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>38169</c:v>
+                  <c:v>88506</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>88506</c:v>
+                  <c:v>7901</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>7901</c:v>
+                  <c:v>15864</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15864</c:v>
+                  <c:v>72154</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>72154</c:v>
+                  <c:v>12659</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>12659</c:v>
+                  <c:v>466846</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>466846</c:v>
+                  <c:v>14940</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>14940</c:v>
+                  <c:v>116459</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>116459</c:v>
+                  <c:v>13112</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13112</c:v>
+                  <c:v>8666</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8666</c:v>
+                  <c:v>7065</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7065</c:v>
+                  <c:v>728553</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>668337</c:v>
@@ -2659,297 +2670,297 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'DS-Java'!$E$1:$E$99</c:f>
+              <c:f>'DS-Java'!$G$1:$G$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>10.2081577777862</c:v>
+                  <c:v>10.4233186244964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.565565824508599</c:v>
+                  <c:v>30.216367006301802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3220367431640598</c:v>
+                  <c:v>7.5633995532989502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.3301680088043</c:v>
+                  <c:v>16.664828300476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.733072519302301</c:v>
+                  <c:v>30.851284027099599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6820011138915998</c:v>
+                  <c:v>6.3427827358245796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3229982852935702</c:v>
+                  <c:v>6.0890865325927699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2594707012176496</c:v>
+                  <c:v>9.9309902191162092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2817885875701904</c:v>
+                  <c:v>7.5871894359588596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.7252855300903</c:v>
+                  <c:v>12.126600742340001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7860014438629097</c:v>
+                  <c:v>8.8173353672027499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.617603063583299</c:v>
+                  <c:v>19.509370803833001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.1492815017700195</c:v>
+                  <c:v>9.2128782272338796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.0717899799346</c:v>
+                  <c:v>4.0044395923614502</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.5673775672912598</c:v>
+                  <c:v>9.8521676063537598</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.688321590423499</c:v>
+                  <c:v>28.093423604965199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.557153463363601</c:v>
+                  <c:v>29.2076976299285</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6711950302123997</c:v>
+                  <c:v>5.1810832023620597</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7320380210876403</c:v>
+                  <c:v>6.8403203487396196</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.523708581924399</c:v>
+                  <c:v>6.2242922782897896</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4920747280120796</c:v>
+                  <c:v>5.6261541843414298</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.1020345687866202</c:v>
+                  <c:v>6.1215898990631104</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8490037918090803</c:v>
+                  <c:v>6.0795133113861004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>18.1985535621643</c:v>
+                  <c:v>13.210891008377001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.6542494297027499</c:v>
+                  <c:v>8.0825042724609304</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.48221683502197</c:v>
+                  <c:v>5.0726444721221897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.2701122760772696</c:v>
+                  <c:v>5.17040944099426</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.393707036972</c:v>
+                  <c:v>10.9100799560546</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7864856719970703</c:v>
+                  <c:v>8.9678018093109095</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.5164911746978</c:v>
+                  <c:v>10.3097243309021</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.928129673004101</c:v>
+                  <c:v>19.496186494827199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.3939836025238</c:v>
+                  <c:v>12.9810583591461</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.5434513092040998</c:v>
+                  <c:v>8.9996926784515292</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.4598679542541504</c:v>
+                  <c:v>6.7099981307983398</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>16.560177087783799</c:v>
+                  <c:v>19.7759041786193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9344778060912997</c:v>
+                  <c:v>6.1502919197082502</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.663279294967602</c:v>
+                  <c:v>20.784735918045001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.819886684417703</c:v>
+                  <c:v>37.702175617218003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>14.341815710067699</c:v>
+                  <c:v>15.2488586902618</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.3211634159088099</c:v>
+                  <c:v>9.7510850429534894</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>16.935307979583701</c:v>
+                  <c:v>22.021269559860201</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>17.316302537917998</c:v>
+                  <c:v>17.291252136230401</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.9814033508300692</c:v>
+                  <c:v>9.7389342784881592</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>50.946222066879201</c:v>
+                  <c:v>43.640780687332096</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.9539935588836599</c:v>
+                  <c:v>7.2978653907775799</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2371878623962402</c:v>
+                  <c:v>6.5451083183288503</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9546434879302899</c:v>
+                  <c:v>5.1203763484954798</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>63.735651016235302</c:v>
+                  <c:v>5.5852482318878103</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.0832257270812899</c:v>
+                  <c:v>9.7048232555389404</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.1943366527557302</c:v>
+                  <c:v>6.1316204071044904</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.89117383956909</c:v>
+                  <c:v>7.4508903026580802</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.0552160739999996</c:v>
+                  <c:v>8.1695616245269704</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>7.8468203540000001</c:v>
+                  <c:v>7.6558589935302699</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.5291614530000004</c:v>
+                  <c:v>6.4442942142486501</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.329271555</c:v>
+                  <c:v>6.09529280662536</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.866123676</c:v>
+                  <c:v>10.4357964992523</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.9886264800000006</c:v>
+                  <c:v>7.09863233566284</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.926639079999999</c:v>
+                  <c:v>5.6652576923370299</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.6579542160000003</c:v>
+                  <c:v>7.8098053932189897</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.3738005160000002</c:v>
+                  <c:v>9.9803102016448904</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.0391085150000006</c:v>
+                  <c:v>10.476723909378</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>10.1871562</c:v>
+                  <c:v>5.5918278694152797</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.9640345573425204</c:v>
+                  <c:v>7.63633060455322</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.5029995441436697</c:v>
+                  <c:v>8.6124916076660103</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.5190417766570992</c:v>
+                  <c:v>12.094886064529399</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.356580495834301</c:v>
+                  <c:v>9.5141022205352694</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.6199984550476003</c:v>
+                  <c:v>8.9752140045165998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13.044998884201</c:v>
+                  <c:v>8.6736624240875209</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>8.8761560916900599</c:v>
+                  <c:v>6.2044584751129097</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.1890330314636204</c:v>
+                  <c:v>6.3689858913421604</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.4814150333404497</c:v>
+                  <c:v>34.860689640045102</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>39.063483953475902</c:v>
+                  <c:v>6.5706684589385898</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>6.6269993782043404</c:v>
+                  <c:v>35.3082625865936</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>29.990383148193299</c:v>
+                  <c:v>5.5121476650238002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.6100332736968896</c:v>
+                  <c:v>5.2063307762145996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.7380340099334699</c:v>
+                  <c:v>7.6412057876586896</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.7390003204345703</c:v>
+                  <c:v>8.2443354129791206</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.0551345348358101</c:v>
+                  <c:v>14.053188085556</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.6441786289215</c:v>
+                  <c:v>6.5291159152984601</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.6630399227142298</c:v>
+                  <c:v>8.0937952995300293</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.9830474853515598</c:v>
+                  <c:v>9.2719011306762695</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.2680337429046595</c:v>
+                  <c:v>5.5094969272613499</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.5636715888976997</c:v>
+                  <c:v>29.711045503616301</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>34.951096773147498</c:v>
+                  <c:v>5.6604816913604701</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.6890342235565097</c:v>
+                  <c:v>12.875370740890499</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>12.646240472793499</c:v>
+                  <c:v>6.41591143608093</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.5644207000732404</c:v>
+                  <c:v>3.9060657024383501</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.3370335102081299</c:v>
+                  <c:v>5.5167768001556396</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.4419999122619602</c:v>
+                  <c:v>21.5963518619537</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>57.298087835311797</c:v>
+                  <c:v>52.196402788162203</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.5309979915618896</c:v>
+                  <c:v>7.2904367446899396</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.3293263912200901</c:v>
+                  <c:v>7.4116463661193803</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.2430381774902299</c:v>
+                  <c:v>5.2295689582824698</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.7010352611541704</c:v>
+                  <c:v>5.6863884925842196</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.694047212600699</c:v>
+                  <c:v>15.322677850723201</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.0699963569641104</c:v>
+                  <c:v>5.9361600875854403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +2987,6 @@
         <c:axId val="1631722831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1300000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3094,7 +3104,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>Duration</a:t>
+                  <a:t>Completion Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
@@ -3270,6 +3280,2276 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11558378286623797"/>
+          <c:y val="4.655554285026757E-2"/>
+          <c:w val="0.80625787034689655"/>
+          <c:h val="0.79405585397674749"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ENRE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>41503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>447191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86555</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50510</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>254344</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>122591</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165791</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>277610</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>742730</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>263338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60596</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>161925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>179859</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74714</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>861224</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29914</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92790</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13208</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30363</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42244</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17592</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87074</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11866</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56806</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33508</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23731</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>133832</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23738</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19716</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18440</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>536713</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30825</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>350643</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3292</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32241</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>88506</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15864</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12659</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>466846</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14940</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116459</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13112</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7065</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>728553</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>668337</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9055</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38339</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5219</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11646</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>215349</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$M$1:$M$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.67474746704101563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2948532104492188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.904571533203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.77972412109375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0602264404296875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51584625244140625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33700180053710938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92566680908203125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78580474853515625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0650177001953125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78333282470703125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9072952270507813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82735061645507813</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.198028564453125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.02532958984375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1275978088378906</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8406486511230469</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38420867919921875</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29428482055664063</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1671791076660156</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17428970336914063</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16193389892578125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54709625244140625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2056655883789063</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38847732543945313</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44563674926757813</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15784835815429688</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95135116577148438</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92889785766601563</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.486663818359375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.6450576782226563</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.395111083984375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.62856674194335938</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.42438507080078125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5049247741699219</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31501388549804688</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8021774291992188</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4131622314453125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.0916328430175781</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.67052078247070313</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.8521041870117188</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2453498840332031</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.84402847290039063</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.8402824401855469</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.39560699462890625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45969009399414063</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.10239791870117188</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33349609375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96793365478515625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.31396865844726563</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.44521331787109375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.55500411987304688</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.57117462158203125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.11062240600585938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38291168212890625</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.84619140625</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37787628173828125</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2165069580078125</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8662261962890625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.89390182495117188</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.45311737060546875</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.31748199462890625</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.837249755859375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55797195434570313</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.1466522216796875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.88075637817382813</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.61032485961914063</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40073776245117188</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48511505126953125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.43083572387695313</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5560760498046875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.75113296508789063</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.8749237060546875</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.17578506469726563</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.6506500244140625</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.64769744873046875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.779937744140625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.64980697631835938</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.29067611694335938</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.47132110595703125</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.88080215454101563</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.26066970825195313</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.17291259765625</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38752365112304688</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.1425361633300781</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.41677093505859375</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.25903701782226563</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.26401901245117188</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8402862548828125</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.6521034240722656</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.25684356689453125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53692245483398438</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20599365234375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.27339935302734375</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7033500671386719</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.26075363159179688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F54-4B63-A719-80E836D4EB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Depends</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>41503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>447191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86555</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50510</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>254344</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>122591</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165791</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>277610</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>742730</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>263338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60596</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>161925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>179859</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74714</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>861224</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29914</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92790</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13208</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30363</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42244</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17592</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87074</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11866</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56806</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33508</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23731</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>133832</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23738</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19716</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18440</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>536713</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30825</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>350643</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3292</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32241</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>88506</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15864</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12659</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>466846</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14940</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116459</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13112</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7065</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>728553</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>668337</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9055</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38339</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5219</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11646</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>215349</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$N$1:$N$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.50225830078125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8100738525390625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50308990478515625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85277557373046875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6362380981445313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49581146240234375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48207473754882813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50616073608398438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5450897216796875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52191162109375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5101776123046875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79996109008789063</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50701522827148438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.35890960693359375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52176666259765625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.94787979125976563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85756301879882813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46946334838867188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5005340576171875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56583786010742188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.35443115234375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33899307250976563</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.48812103271484375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5256500244140625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49911880493164063</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48786544799804688</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.34566497802734375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54558563232421875</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50494384765625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.564056396484375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.58836746215820313</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5544281005859375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.48971176147460938</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47256851196289063</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1734123229980469</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48406219482421875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9092559814453125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4048271179199219</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61904144287109375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4955291748046875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.76953887939453125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63859176635742188</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.52858352661132813</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.594207763671875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.54081344604492188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52772140502929688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.23167800903320313</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42147064208984375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51220703125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.485198974609375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5010528564453125</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5107574462890625</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.491485595703125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.44935989379882813</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.51227951049804688</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.49922943115234375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.50414657592773438</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.33655929565429688</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.51413726806640625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.52853775024414063</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.51640701293945313</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.48797225952148438</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.49514007568359375</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4717254638671875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.53527450561523438</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.4797210693359375</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.48984527587890625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47971343994140625</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.494903564453125</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50667953491210938</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.3859519958496094</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.48831558227539063</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.89052581787109375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.34829330444335938</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.55762481689453125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.50644302368164063</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.48553466796875</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52447509765625</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53778076171875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.48038101196289063</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.50242996215820313</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.46229171752929688</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8328399658203125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.48480606079101563</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.52442550659179688</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.54275131225585938</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.47747421264648438</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49176025390625</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7842941284179688</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.1542510986328125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.534423828125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.47338485717773438</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.30987930297851563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.46918869018554688</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.66842269897460938</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.48657989501953125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8F54-4B63-A719-80E836D4EB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Understand</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="6350" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$B$1:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>41503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>352701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65235</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>362944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78050</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316410</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>57360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>447191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>379113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11959</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>187005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3732</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19696</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116570</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25124</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>86555</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50510</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>118678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>254344</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>122591</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>165791</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9050</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>277610</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>742730</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>263338</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60596</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>161925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>179859</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>74714</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>861224</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12277</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29914</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7237</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>92790</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13208</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36989</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30363</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42244</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4082</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17592</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>87074</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11866</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56806</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>93128</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33508</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23731</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>133832</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57838</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23738</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>19716</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18440</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>536713</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30825</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>350643</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3292</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32241</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>35698</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>88506</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7901</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15864</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72154</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12659</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>466846</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14940</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116459</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13112</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8666</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7065</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>728553</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>668337</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9055</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>38339</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5219</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11646</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>215349</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'DS-Java'!$O$1:$O$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0.63179779052734375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5295677185058594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47042083740234375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83571624755859375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6815872192382813</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35132217407226563</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34800338745117188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75220489501953125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51229476928710938</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.781341552734375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53939437866210938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0600738525390625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66645050048828125</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14790725708007813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.605743408203125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6430778503417969</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99629592895507813</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43869781494140625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38428878784179688</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1574554443359375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38027191162109375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.34939193725585938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31560134887695313</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81876373291015625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48613357543945313</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38085556030273438</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.280792236328125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.68526077270507813</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.66244125366210938</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90189361572265625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98004913330078125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.83333206176757813</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5989990234375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.39371490478515625</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3276481628417969</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.43995285034179688</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9935302734375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5934066772460938</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76762008666992188</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66294097900390625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3299102783203125</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2259559631347656</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.616180419921875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.40325927734375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44547653198242188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34449386596679688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27296829223632813</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37638473510742188</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52864456176757813</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43704986572265625</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49178695678710938</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.59984207153320313</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53002548217773438</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.35584259033203125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.42742919921875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64984893798828125</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.47092056274414063</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39969635009765625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.4069976806640625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.51593017578125</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.47214508056640625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.32629013061523438</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.52920913696289063</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.59498214721679688</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.8478240966796875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.73981857299804688</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.603759765625</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69106674194335938</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.41984176635742188</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.44148635864257813</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5845527648925781</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.40088653564453125</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4870071411132813</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.3722991943359375</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.41121292114257813</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53475189208984375</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.51228713989257813</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0242118835449219</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.34751510620117188</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.56686782836914063</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.845916748046875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31931304931640625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8148307800292969</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.35774993896484375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84332275390625</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.45015335083007813</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.10744094848632813</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.29201126098632813</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.934417724609375</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.6214866638183594</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.29340362548828125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.53552627563476563</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.28137588500976563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.30945205688476563</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.89006805419921875</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.33517837524414063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8F54-4B63-A719-80E836D4EB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1631722831"/>
+        <c:axId val="1631723247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1631722831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>LoC</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="1270" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631723247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1631723247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+                  <a:t>Peak Memory Usage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0"/>
+                  <a:t> (GB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="1270">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631722831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="1270">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1347773253667848"/>
+          <c:y val="7.3421716214993687E-2"/>
+          <c:w val="0.17567047504215313"/>
+          <c:h val="0.27622319103811765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="1270">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="1270" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5613,7 +7893,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7967,6 +10247,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9515,6 +11835,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6FEF79EA-1A42-4030-A3E2-8D6E6C9105F1}">
   <sheetPr/>
@@ -9528,6 +12351,18 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E40B856F-AEEE-45FC-BAE4-9B9D27C18C76}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="316" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="120" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1AF589D4-E248-4F24-919F-AC15BADE98D2}">
   <sheetPr/>
   <sheetViews>
@@ -9539,7 +12374,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9B50F531-96B3-451A-BE89-9AD1DEC80F73}">
   <sheetPr/>
   <sheetViews>
@@ -9555,7 +12390,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="4081282" cy="2188339"/>
+    <xdr:ext cx="4082143" cy="2186862"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
@@ -9588,6 +12423,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="4082143" cy="2186862"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893BA2C8-0DC5-4D4C-8D82-ABEBE86EA7BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="4081282" cy="2188339"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9617,7 +12485,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9913,15 +12781,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9929,16 +12797,43 @@
         <v>41503</v>
       </c>
       <c r="C1" s="1">
-        <v>4.4484748840331996</v>
+        <v>4.6201651096343896</v>
       </c>
       <c r="D1" s="1">
-        <v>14.3192636966705</v>
+        <v>690.94140625</v>
       </c>
       <c r="E1" s="1">
-        <v>10.2081577777862</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18.3157699108123</v>
+      </c>
+      <c r="F1" s="1">
+        <v>514.3125</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10.4233186244964</v>
+      </c>
+      <c r="H1" s="1">
+        <v>646.9609375</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M1" s="1">
+        <f>$D1/1024</f>
+        <v>0.67474746704101563</v>
+      </c>
+      <c r="N1" s="1">
+        <f>$F1/1024</f>
+        <v>0.50225830078125</v>
+      </c>
+      <c r="O1" s="1">
+        <f>H1/1024</f>
+        <v>0.63179779052734375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -9946,16 +12841,37 @@
         <v>352701</v>
       </c>
       <c r="C2" s="1">
-        <v>14.793130397796601</v>
+        <v>15.2471714019775</v>
       </c>
       <c r="D2" s="1">
-        <v>123.358195781707</v>
+        <v>2349.9296875</v>
       </c>
       <c r="E2" s="1">
-        <v>29.565565824508599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>150.89145994186401</v>
+      </c>
+      <c r="F2" s="1">
+        <v>829.515625</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30.216367006301802</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1566.27734375</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M65" si="0">$D2/1024</f>
+        <v>2.2948532104492188</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N65" si="1">$F2/1024</f>
+        <v>0.8100738525390625</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O65" si="2">H2/1024</f>
+        <v>1.5295677185058594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -9963,16 +12879,37 @@
         <v>65235</v>
       </c>
       <c r="C3" s="1">
-        <v>4.2260706424713099</v>
+        <v>4.5620009899139404</v>
       </c>
       <c r="D3" s="1">
-        <v>24.021467924117999</v>
+        <v>926.28125</v>
       </c>
       <c r="E3" s="1">
-        <v>7.3220367431640598</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41.066535949707003</v>
+      </c>
+      <c r="F3" s="1">
+        <v>515.1640625</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7.5633995532989502</v>
+      </c>
+      <c r="H3" s="1">
+        <v>481.7109375</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.904571533203125</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50308990478515625</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47042083740234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -9980,16 +12917,37 @@
         <v>313836</v>
       </c>
       <c r="C4" s="1">
-        <v>22.515000581741301</v>
+        <v>24.4790291786193</v>
       </c>
       <c r="D4" s="1">
-        <v>98.227020263671804</v>
+        <v>2846.4375</v>
       </c>
       <c r="E4" s="1">
-        <v>16.3301680088043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129.219319105148</v>
+      </c>
+      <c r="F4" s="1">
+        <v>873.2421875</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16.664828300476</v>
+      </c>
+      <c r="H4" s="1">
+        <v>855.7734375</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.77972412109375</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85277557373046875</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83571624755859375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9997,16 +12955,37 @@
         <v>362944</v>
       </c>
       <c r="C5" s="1">
-        <v>12.596998691558801</v>
+        <v>12.828542232513399</v>
       </c>
       <c r="D5" s="1">
-        <v>196.06032943725501</v>
+        <v>2109.671875</v>
       </c>
       <c r="E5" s="1">
-        <v>29.733072519302301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>247.646825075149</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1675.5078125</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30.851284027099599</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1721.9453125</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0602264404296875</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6362380981445313</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6815872192382813</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -10014,16 +12993,37 @@
         <v>25232</v>
       </c>
       <c r="C6" s="1">
-        <v>3.7449975013732901</v>
+        <v>2.7222504615783598</v>
       </c>
       <c r="D6" s="1">
-        <v>14.669294834136901</v>
+        <v>528.2265625</v>
       </c>
       <c r="E6" s="1">
-        <v>7.6820011138915998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12.350563526153501</v>
+      </c>
+      <c r="F6" s="1">
+        <v>507.7109375</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6.3427827358245796</v>
+      </c>
+      <c r="H6" s="1">
+        <v>359.75390625</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51584625244140625</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49581146240234375</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35132217407226563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -10031,16 +13031,37 @@
         <v>17035</v>
       </c>
       <c r="C7" s="1">
-        <v>2.9109809398651101</v>
+        <v>2.3870766162872301</v>
       </c>
       <c r="D7" s="1">
-        <v>8.3940036296844394</v>
+        <v>345.08984375</v>
       </c>
       <c r="E7" s="1">
-        <v>7.3229982852935702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8.6801328659057599</v>
+      </c>
+      <c r="F7" s="1">
+        <v>493.64453125</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.0890865325927699</v>
+      </c>
+      <c r="H7" s="1">
+        <v>356.35546875</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33700180053710938</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48207473754882813</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34800338745117188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -10048,16 +13069,37 @@
         <v>78050</v>
       </c>
       <c r="C8" s="1">
-        <v>5.7820730209350497</v>
+        <v>5.7400567531585596</v>
       </c>
       <c r="D8" s="1">
-        <v>31.3174533843994</v>
+        <v>947.8828125</v>
       </c>
       <c r="E8" s="1">
-        <v>9.2594707012176496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31.9787578582763</v>
+      </c>
+      <c r="F8" s="1">
+        <v>518.30859375</v>
+      </c>
+      <c r="G8" s="1">
+        <v>9.9309902191162092</v>
+      </c>
+      <c r="H8" s="1">
+        <v>770.2578125</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92566680908203125</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50616073608398438</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75220489501953125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -10065,16 +13107,37 @@
         <v>39083</v>
       </c>
       <c r="C9" s="1">
-        <v>3.6849679946899401</v>
+        <v>3.9240307807922301</v>
       </c>
       <c r="D9" s="1">
-        <v>14.679162502288801</v>
+        <v>804.6640625</v>
       </c>
       <c r="E9" s="1">
-        <v>7.2817885875701904</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.0257534980773</v>
+      </c>
+      <c r="F9" s="1">
+        <v>558.171875</v>
+      </c>
+      <c r="G9" s="1">
+        <v>7.5871894359588596</v>
+      </c>
+      <c r="H9" s="1">
+        <v>524.58984375</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78580474853515625</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5450897216796875</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51229476928710938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -10082,16 +13145,37 @@
         <v>101566</v>
       </c>
       <c r="C10" s="1">
-        <v>6.45694804191589</v>
+        <v>7.0860493183135898</v>
       </c>
       <c r="D10" s="1">
-        <v>30.7891972064971</v>
+        <v>1090.578125</v>
       </c>
       <c r="E10" s="1">
-        <v>11.7252855300903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40.258010864257798</v>
+      </c>
+      <c r="F10" s="1">
+        <v>534.4375</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12.126600742340001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>800.09375</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0650177001953125</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52191162109375</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.781341552734375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -10099,16 +13183,37 @@
         <v>46958</v>
       </c>
       <c r="C11" s="1">
-        <v>3.9189965724945002</v>
+        <v>3.9070355892181299</v>
       </c>
       <c r="D11" s="1">
-        <v>18.080985546112</v>
+        <v>802.1328125</v>
       </c>
       <c r="E11" s="1">
-        <v>8.7860014438629097</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>21.290913581848098</v>
+      </c>
+      <c r="F11" s="1">
+        <v>522.421875</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8.8173353672027499</v>
+      </c>
+      <c r="H11" s="1">
+        <v>552.33984375</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78333282470703125</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5101776123046875</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53939437866210938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -10116,16 +13221,37 @@
         <v>316410</v>
       </c>
       <c r="C12" s="1">
-        <v>14.947107553482001</v>
+        <v>15.873779535293499</v>
       </c>
       <c r="D12" s="1">
-        <v>96.864191293716402</v>
+        <v>2977.0703125</v>
       </c>
       <c r="E12" s="1">
-        <v>18.617603063583299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>130.09212756156899</v>
+      </c>
+      <c r="F12" s="1">
+        <v>819.16015625</v>
+      </c>
+      <c r="G12" s="1">
+        <v>19.509370803833001</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1085.515625</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9072952270507813</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79996109008789063</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0600738525390625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -10133,16 +13259,37 @@
         <v>44188</v>
       </c>
       <c r="C13" s="1">
-        <v>3.9399952888488698</v>
+        <v>4.1650981903076101</v>
       </c>
       <c r="D13" s="1">
-        <v>15.4242479801177</v>
+        <v>847.20703125</v>
       </c>
       <c r="E13" s="1">
-        <v>9.1492815017700195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>20.108232259750299</v>
+      </c>
+      <c r="F13" s="1">
+        <v>519.18359375</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.2128782272338796</v>
+      </c>
+      <c r="H13" s="1">
+        <v>682.4453125</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82735061645507813</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50701522827148438</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66645050048828125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -10150,16 +13297,37 @@
         <v>4194</v>
       </c>
       <c r="C14" s="1">
-        <v>1.3165767192840501</v>
+        <v>1.3290438652038501</v>
       </c>
       <c r="D14" s="1">
-        <v>2.8753681182861301</v>
+        <v>202.78125</v>
       </c>
       <c r="E14" s="1">
-        <v>13.0717899799346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.1080553531646702</v>
+      </c>
+      <c r="F14" s="1">
+        <v>367.5234375</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.0044395923614502</v>
+      </c>
+      <c r="H14" s="1">
+        <v>151.45703125</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.198028564453125</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35890960693359375</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14790725708007813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -10167,16 +13335,37 @@
         <v>57360</v>
       </c>
       <c r="C15" s="1">
-        <v>4.6982254981994602</v>
+        <v>5.1153819561004603</v>
       </c>
       <c r="D15" s="1">
-        <v>18.866757392883301</v>
+        <v>1049.9375</v>
       </c>
       <c r="E15" s="1">
-        <v>9.5673775672912598</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24.6168386936187</v>
+      </c>
+      <c r="F15" s="1">
+        <v>534.2890625</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.8521676063537598</v>
+      </c>
+      <c r="H15" s="1">
+        <v>620.28125</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.02532958984375</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52176666259765625</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.605743408203125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -10184,16 +13373,37 @@
         <v>447191</v>
       </c>
       <c r="C16" s="1">
-        <v>18.819634437561</v>
+        <v>19.8540232181549</v>
       </c>
       <c r="D16" s="1">
-        <v>121.14888215065</v>
+        <v>3202.66015625</v>
       </c>
       <c r="E16" s="1">
-        <v>27.688321590423499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>176.19479060173001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>970.62890625</v>
+      </c>
+      <c r="G16" s="1">
+        <v>28.093423604965199</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1682.51171875</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.1275978088378906</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94787979125976563</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6430778503417969</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10201,16 +13411,37 @@
         <v>379113</v>
       </c>
       <c r="C17" s="1">
-        <v>16.790135860443101</v>
+        <v>16.963026523589999</v>
       </c>
       <c r="D17" s="1">
-        <v>106.707696199417</v>
+        <v>2908.82421875</v>
       </c>
       <c r="E17" s="1">
-        <v>25.557153463363601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133.69736790657001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>878.14453125</v>
+      </c>
+      <c r="G17" s="1">
+        <v>29.2076976299285</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1020.20703125</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8406486511230469</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.85756301879882813</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99629592895507813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -10218,16 +13449,37 @@
         <v>11959</v>
       </c>
       <c r="C18" s="1">
-        <v>2.3520658016204798</v>
+        <v>2.41213726997375</v>
       </c>
       <c r="D18" s="1">
-        <v>5.3320436477661097</v>
+        <v>393.4296875</v>
       </c>
       <c r="E18" s="1">
-        <v>6.6711950302123997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11.7507741451263</v>
+      </c>
+      <c r="F18" s="1">
+        <v>480.73046875</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.1810832023620597</v>
+      </c>
+      <c r="H18" s="1">
+        <v>449.2265625</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38420867919921875</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46946334838867188</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43869781494140625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10235,16 +13487,37 @@
         <v>9835</v>
       </c>
       <c r="C19" s="1">
-        <v>1.82501220703125</v>
+        <v>1.82807421684265</v>
       </c>
       <c r="D19" s="1">
-        <v>4.7345130443572998</v>
+        <v>301.34765625</v>
       </c>
       <c r="E19" s="1">
-        <v>6.7320380210876403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.94315433502197</v>
+      </c>
+      <c r="F19" s="1">
+        <v>512.546875</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6.8403203487396196</v>
+      </c>
+      <c r="H19" s="1">
+        <v>393.51171875</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.29428482055664063</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5005340576171875</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38428878784179688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -10252,16 +13525,37 @@
         <v>187005</v>
       </c>
       <c r="C20" s="1">
-        <v>9.8112943172454798</v>
+        <v>10.537084579467701</v>
       </c>
       <c r="D20" s="1">
-        <v>59.383727312087998</v>
+        <v>2219.19140625</v>
       </c>
       <c r="E20" s="1">
-        <v>16.523708581924399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>76.992202281951904</v>
+      </c>
+      <c r="F20" s="1">
+        <v>579.41796875</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.2242922782897896</v>
+      </c>
+      <c r="H20" s="1">
+        <v>161.234375</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1671791076660156</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56583786010742188</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1574554443359375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -10269,16 +13563,37 @@
         <v>5038</v>
       </c>
       <c r="C21" s="1">
-        <v>1.34898877143859</v>
+        <v>1.34398961067199</v>
       </c>
       <c r="D21" s="1">
-        <v>2.8489990234375</v>
+        <v>178.47265625</v>
       </c>
       <c r="E21" s="1">
-        <v>5.4920747280120796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.4851078987121502</v>
+      </c>
+      <c r="F21" s="1">
+        <v>362.9375</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5.6261541843414298</v>
+      </c>
+      <c r="H21" s="1">
+        <v>389.3984375</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.17428970336914063</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35443115234375</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38027191162109375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -10286,16 +13601,37 @@
         <v>3732</v>
       </c>
       <c r="C22" s="1">
-        <v>1.1670715808868399</v>
+        <v>1.17509961128234</v>
       </c>
       <c r="D22" s="1">
-        <v>2.6041088104247998</v>
+        <v>165.8203125</v>
       </c>
       <c r="E22" s="1">
-        <v>6.1020345687866202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.9456799030303902</v>
+      </c>
+      <c r="F22" s="1">
+        <v>347.12890625</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.1215898990631104</v>
+      </c>
+      <c r="H22" s="1">
+        <v>357.77734375</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16193389892578125</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33899307250976563</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34939193725585938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -10303,16 +13639,37 @@
         <v>19696</v>
       </c>
       <c r="C23" s="1">
-        <v>2.70000791549682</v>
+        <v>2.7321856021881099</v>
       </c>
       <c r="D23" s="1">
-        <v>8.1654562950134206</v>
+        <v>560.2265625</v>
       </c>
       <c r="E23" s="1">
-        <v>5.8490037918090803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.2209358215331996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>499.8359375</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6.0795133113861004</v>
+      </c>
+      <c r="H23" s="1">
+        <v>323.17578125</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54709625244140625</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48812103271484375</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31560134887695313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -10320,16 +13677,37 @@
         <v>116570</v>
       </c>
       <c r="C24" s="1">
-        <v>7.96423292160034</v>
+        <v>8.4470019340515101</v>
       </c>
       <c r="D24" s="1">
-        <v>37.430684804916297</v>
+        <v>1234.6015625</v>
       </c>
       <c r="E24" s="1">
-        <v>18.1985535621643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47.455721855163503</v>
+      </c>
+      <c r="F24" s="1">
+        <v>538.265625</v>
+      </c>
+      <c r="G24" s="1">
+        <v>13.210891008377001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>838.4140625</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2056655883789063</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5256500244140625</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81876373291015625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -10337,16 +13715,37 @@
         <v>11664</v>
       </c>
       <c r="C25" s="1">
-        <v>2.1590449810028001</v>
+        <v>2.2690129280090301</v>
       </c>
       <c r="D25" s="1">
-        <v>6.9495131969451904</v>
+        <v>397.80078125</v>
       </c>
       <c r="E25" s="1">
-        <v>7.6542494297027499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.0211672782897896</v>
+      </c>
+      <c r="F25" s="1">
+        <v>511.09765625</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8.0825042724609304</v>
+      </c>
+      <c r="H25" s="1">
+        <v>497.80078125</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38847732543945313</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49911880493164063</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48613357543945313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -10354,16 +13753,37 @@
         <v>25124</v>
       </c>
       <c r="C26" s="1">
-        <v>2.9103517532348602</v>
+        <v>3.14909791946411</v>
       </c>
       <c r="D26" s="1">
-        <v>8.7475781440734792</v>
+        <v>456.33203125</v>
       </c>
       <c r="E26" s="1">
-        <v>6.48221683502197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10.846292018890299</v>
+      </c>
+      <c r="F26" s="1">
+        <v>499.57421875</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.0726444721221897</v>
+      </c>
+      <c r="H26" s="1">
+        <v>389.99609375</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44563674926757813</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48786544799804688</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38085556030273438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -10371,16 +13791,37 @@
         <v>3992</v>
       </c>
       <c r="C27" s="1">
-        <v>1.14600729942321</v>
+        <v>1.2259619235992401</v>
       </c>
       <c r="D27" s="1">
-        <v>2.62299132347106</v>
+        <v>161.63671875</v>
       </c>
       <c r="E27" s="1">
-        <v>5.2701122760772696</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.9803180694579998</v>
+      </c>
+      <c r="F27" s="1">
+        <v>353.9609375</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5.17040944099426</v>
+      </c>
+      <c r="H27" s="1">
+        <v>287.53125</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15784835815429688</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34566497802734375</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.280792236328125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -10388,16 +13829,37 @@
         <v>86555</v>
       </c>
       <c r="C28" s="1">
-        <v>5.5263283252716002</v>
+        <v>5.8480267524719203</v>
       </c>
       <c r="D28" s="1">
-        <v>27.338762998580901</v>
+        <v>974.18359375</v>
       </c>
       <c r="E28" s="1">
-        <v>10.393707036972</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34.269833803176802</v>
+      </c>
+      <c r="F28" s="1">
+        <v>558.6796875</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10.9100799560546</v>
+      </c>
+      <c r="H28" s="1">
+        <v>701.70703125</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.95135116577148438</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54558563232421875</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68526077270507813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -10405,16 +13867,37 @@
         <v>50510</v>
       </c>
       <c r="C29" s="1">
-        <v>4.2569997310638401</v>
+        <v>4.3676197528839102</v>
       </c>
       <c r="D29" s="1">
-        <v>19.795311927795399</v>
+        <v>951.19140625</v>
       </c>
       <c r="E29" s="1">
-        <v>8.7864856719970703</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24.525996446609401</v>
+      </c>
+      <c r="F29" s="1">
+        <v>517.0625</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8.9678018093109095</v>
+      </c>
+      <c r="H29" s="1">
+        <v>678.33984375</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92889785766601563</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50494384765625</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66244125366210938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -10422,16 +13905,37 @@
         <v>118678</v>
       </c>
       <c r="C30" s="1">
-        <v>8.8460445404052699</v>
+        <v>9.1970977783203107</v>
       </c>
       <c r="D30" s="1">
-        <v>42.774621963500898</v>
+        <v>1522.34375</v>
       </c>
       <c r="E30" s="1">
-        <v>13.5164911746978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>56.362169027328399</v>
+      </c>
+      <c r="F30" s="1">
+        <v>577.59375</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10.3097243309021</v>
+      </c>
+      <c r="H30" s="1">
+        <v>923.5390625</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="0"/>
+        <v>1.486663818359375</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.564056396484375</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90189361572265625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -10439,16 +13943,37 @@
         <v>254344</v>
       </c>
       <c r="C31" s="1">
-        <v>15.9459996223449</v>
+        <v>17.521050453186</v>
       </c>
       <c r="D31" s="1">
-        <v>82.927614450454698</v>
+        <v>2708.5390625</v>
       </c>
       <c r="E31" s="1">
-        <v>17.928129673004101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>112.85742855072</v>
+      </c>
+      <c r="F31" s="1">
+        <v>602.48828125</v>
+      </c>
+      <c r="G31" s="1">
+        <v>19.496186494827199</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1003.5703125</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6450576782226563</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58836746215820313</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.98004913330078125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -10456,16 +13981,37 @@
         <v>122591</v>
       </c>
       <c r="C32" s="1">
-        <v>7.6159982681274396</v>
+        <v>8.1745412349700892</v>
       </c>
       <c r="D32" s="1">
-        <v>39.611913442611602</v>
+        <v>1428.59375</v>
       </c>
       <c r="E32" s="1">
-        <v>12.3939836025238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>59.231004714965799</v>
+      </c>
+      <c r="F32" s="1">
+        <v>567.734375</v>
+      </c>
+      <c r="G32" s="1">
+        <v>12.9810583591461</v>
+      </c>
+      <c r="H32" s="1">
+        <v>853.33203125</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.395111083984375</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5544281005859375</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83333206176757813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -10473,16 +14019,37 @@
         <v>35123</v>
       </c>
       <c r="C33" s="1">
-        <v>3.6359698772430402</v>
+        <v>3.6212410926818799</v>
       </c>
       <c r="D33" s="1">
-        <v>11.1024384498596</v>
+        <v>643.65234375</v>
       </c>
       <c r="E33" s="1">
-        <v>8.5434513092040998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13.7480001449584</v>
+      </c>
+      <c r="F33" s="1">
+        <v>501.46484375</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8.9996926784515292</v>
+      </c>
+      <c r="H33" s="1">
+        <v>613.375</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.62856674194335938</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48971176147460938</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5989990234375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -10490,16 +14057,37 @@
         <v>19065</v>
       </c>
       <c r="C34" s="1">
-        <v>2.4860773086547798</v>
+        <v>2.6000547409057599</v>
       </c>
       <c r="D34" s="1">
-        <v>7.4956862926483101</v>
+        <v>434.5703125</v>
       </c>
       <c r="E34" s="1">
-        <v>6.4598679542541504</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.2183957099914497</v>
+      </c>
+      <c r="F34" s="1">
+        <v>483.91015625</v>
+      </c>
+      <c r="G34" s="1">
+        <v>6.7099981307983398</v>
+      </c>
+      <c r="H34" s="1">
+        <v>403.1640625</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42438507080078125</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47256851196289063</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39371490478515625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -10507,16 +14095,37 @@
         <v>165791</v>
       </c>
       <c r="C35" s="1">
-        <v>8.0626764297485298</v>
+        <v>8.4890687465667707</v>
       </c>
       <c r="D35" s="1">
-        <v>74.058044433593693</v>
+        <v>1541.04296875</v>
       </c>
       <c r="E35" s="1">
-        <v>16.560177087783799</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90.052615880966101</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1201.57421875</v>
+      </c>
+      <c r="G35" s="1">
+        <v>19.7759041786193</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1359.51171875</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5049247741699219</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1734123229980469</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3276481628417969</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -10524,16 +14133,37 @@
         <v>9050</v>
       </c>
       <c r="C36" s="1">
-        <v>1.81200194358825</v>
+        <v>1.7829954624176001</v>
       </c>
       <c r="D36" s="1">
-        <v>4.4199993610382</v>
+        <v>322.57421875</v>
       </c>
       <c r="E36" s="1">
-        <v>5.9344778060912997</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.2016093730926496</v>
+      </c>
+      <c r="F36" s="1">
+        <v>495.6796875</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.1502919197082502</v>
+      </c>
+      <c r="H36" s="1">
+        <v>450.51171875</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31501388549804688</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48406219482421875</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43995285034179688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -10541,16 +14171,37 @@
         <v>277610</v>
       </c>
       <c r="C37" s="1">
-        <v>14.298939704895</v>
+        <v>15.6551530361175</v>
       </c>
       <c r="D37" s="1">
-        <v>106.982081890106</v>
+        <v>2869.4296875</v>
       </c>
       <c r="E37" s="1">
-        <v>21.663279294967602</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133.98761296272201</v>
+      </c>
+      <c r="F37" s="1">
+        <v>931.078125</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20.784735918045001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1017.375</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8021774291992188</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9092559814453125</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9935302734375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -10558,16 +14209,37 @@
         <v>742730</v>
       </c>
       <c r="C38" s="1">
-        <v>21.464663982391301</v>
+        <v>23.248540878295898</v>
       </c>
       <c r="D38" s="1">
-        <v>259.66685605049099</v>
+        <v>4519.078125</v>
       </c>
       <c r="E38" s="1">
-        <v>41.819886684417703</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>311.68511199951098</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1438.54296875</v>
+      </c>
+      <c r="G38" s="1">
+        <v>37.702175617218003</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1631.6484375</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4131622314453125</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4048271179199219</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5934066772460938</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -10575,16 +14247,37 @@
         <v>263338</v>
       </c>
       <c r="C39" s="1">
-        <v>11.698693037032999</v>
+        <v>12.8847022056579</v>
       </c>
       <c r="D39" s="1">
-        <v>70.967564821243201</v>
+        <v>2141.83203125</v>
       </c>
       <c r="E39" s="1">
-        <v>14.341815710067699</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88.794915676116901</v>
+      </c>
+      <c r="F39" s="1">
+        <v>633.8984375</v>
+      </c>
+      <c r="G39" s="1">
+        <v>15.2488586902618</v>
+      </c>
+      <c r="H39" s="1">
+        <v>786.04296875</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0916328430175781</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61904144287109375</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76762008666992188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -10592,16 +14285,37 @@
         <v>60596</v>
       </c>
       <c r="C40" s="1">
-        <v>5.2840313911437899</v>
+        <v>4.3161032199859601</v>
       </c>
       <c r="D40" s="1">
-        <v>20.0549926757812</v>
+        <v>686.61328125</v>
       </c>
       <c r="E40" s="1">
-        <v>9.3211634159088099</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>25.943625450134199</v>
+      </c>
+      <c r="F40" s="1">
+        <v>507.421875</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.7510850429534894</v>
+      </c>
+      <c r="H40" s="1">
+        <v>678.8515625</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67052078247070313</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4955291748046875</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66294097900390625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -10609,16 +14323,37 @@
         <v>161925</v>
       </c>
       <c r="C41" s="1">
-        <v>11.5931131839752</v>
+        <v>11.4679851531982</v>
       </c>
       <c r="D41" s="1">
-        <v>77.694435834884601</v>
+        <v>1896.5546875</v>
       </c>
       <c r="E41" s="1">
-        <v>16.935307979583701</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>95.589709520339895</v>
+      </c>
+      <c r="F41" s="1">
+        <v>788.0078125</v>
+      </c>
+      <c r="G41" s="1">
+        <v>22.021269559860201</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1361.828125</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8521041870117188</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76953887939453125</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3299102783203125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -10626,16 +14361,37 @@
         <v>179859</v>
       </c>
       <c r="C42" s="1">
-        <v>10.620004177093501</v>
+        <v>8.2612740993499703</v>
       </c>
       <c r="D42" s="1">
-        <v>57.838377714157097</v>
+        <v>1275.23828125</v>
       </c>
       <c r="E42" s="1">
-        <v>17.316302537917998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87.297879934310899</v>
+      </c>
+      <c r="F42" s="1">
+        <v>653.91796875</v>
+      </c>
+      <c r="G42" s="1">
+        <v>17.291252136230401</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1255.37890625</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2453498840332031</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63859176635742188</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2259559631347656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -10643,16 +14399,37 @@
         <v>74714</v>
       </c>
       <c r="C43" s="1">
-        <v>5.4591751098632804</v>
+        <v>5.9384176731109601</v>
       </c>
       <c r="D43" s="1">
-        <v>24.662456035613999</v>
+        <v>864.28515625</v>
       </c>
       <c r="E43" s="1">
-        <v>8.9814033508300692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32.795356035232501</v>
+      </c>
+      <c r="F43" s="1">
+        <v>541.26953125</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9.7389342784881592</v>
+      </c>
+      <c r="H43" s="1">
+        <v>630.96875</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84402847290039063</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52858352661132813</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.616180419921875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -10660,16 +14437,37 @@
         <v>861224</v>
       </c>
       <c r="C44" s="1">
-        <v>27.835036754608101</v>
+        <v>42.561461448669398</v>
       </c>
       <c r="D44" s="1">
-        <v>233.25651764869599</v>
+        <v>4956.44921875</v>
       </c>
       <c r="E44" s="1">
-        <v>50.946222066879201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293.46451139449999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1632.46875</v>
+      </c>
+      <c r="G44" s="1">
+        <v>43.640780687332096</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2460.9375</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8402824401855469</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="1"/>
+        <v>1.594207763671875</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="2"/>
+        <v>2.40325927734375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -10677,16 +14475,37 @@
         <v>12277</v>
       </c>
       <c r="C45" s="1">
-        <v>2.1650943756103498</v>
+        <v>2.2991485595703098</v>
       </c>
       <c r="D45" s="1">
-        <v>5.10113477706909</v>
+        <v>405.1015625</v>
       </c>
       <c r="E45" s="1">
-        <v>6.9539935588836599</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.5275714397430402</v>
+      </c>
+      <c r="F45" s="1">
+        <v>553.79296875</v>
+      </c>
+      <c r="G45" s="1">
+        <v>7.2978653907775799</v>
+      </c>
+      <c r="H45" s="1">
+        <v>456.16796875</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39560699462890625</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54081344604492188</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44547653198242188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -10694,16 +14513,37 @@
         <v>29914</v>
       </c>
       <c r="C46" s="1">
-        <v>2.7449674606323198</v>
+        <v>2.9400603771209699</v>
       </c>
       <c r="D46" s="1">
-        <v>10.6117038726806</v>
+        <v>470.72265625</v>
       </c>
       <c r="E46" s="1">
-        <v>6.2371878623962402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>13.535639047622601</v>
+      </c>
+      <c r="F46" s="1">
+        <v>540.38671875</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6.5451083183288503</v>
+      </c>
+      <c r="H46" s="1">
+        <v>352.76171875</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45969009399414063</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52772140502929688</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34449386596679688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -10711,33 +14551,75 @@
         <v>1386</v>
       </c>
       <c r="C47" s="1">
-        <v>0.83700084686279297</v>
+        <v>0.81707668304443304</v>
       </c>
       <c r="D47" s="1">
-        <v>1.4300570487976001</v>
+        <v>104.85546875</v>
       </c>
       <c r="E47" s="1">
-        <v>4.9546434879302899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+        <v>1.62095999717712</v>
+      </c>
+      <c r="F47" s="1">
+        <v>237.23828125</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5.1203763484954798</v>
+      </c>
+      <c r="H47" s="1">
+        <v>279.51953125</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10239791870117188</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23167800903320313</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27296829223632813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>1206287</v>
       </c>
-      <c r="C48" s="1">
-        <v>50.249176979064899</v>
-      </c>
-      <c r="D48" s="1">
-        <v>403.85255193710299</v>
-      </c>
-      <c r="E48" s="1">
-        <v>63.735651016235302</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>32.247559785842803</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4808.71875</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2462.96875</v>
+      </c>
+      <c r="G48" s="2">
+        <v>70.7262699604034</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4349.7109375</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="0"/>
+        <v>4.696014404296875</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="1"/>
+        <v>2.405242919921875</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2477645874023438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -10745,16 +14627,37 @@
         <v>7237</v>
       </c>
       <c r="C49" s="1">
-        <v>1.62906646728515</v>
+        <v>1.7521891593933101</v>
       </c>
       <c r="D49" s="1">
-        <v>3.61109399795532</v>
+        <v>341.5</v>
       </c>
       <c r="E49" s="1">
-        <v>9.0832257270812899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.6111826896667401</v>
+      </c>
+      <c r="F49" s="1">
+        <v>431.5859375</v>
+      </c>
+      <c r="G49" s="1">
+        <v>5.5852482318878103</v>
+      </c>
+      <c r="H49" s="1">
+        <v>385.41796875</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33349609375</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42147064208984375</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37638473510742188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -10762,16 +14665,37 @@
         <v>92790</v>
       </c>
       <c r="C50" s="1">
-        <v>5.7860224246978698</v>
+        <v>6.1845326423645002</v>
       </c>
       <c r="D50" s="1">
-        <v>28.609064102172798</v>
+        <v>991.1640625</v>
       </c>
       <c r="E50" s="1">
-        <v>9.1943366527557302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38.0638298988342</v>
+      </c>
+      <c r="F50" s="1">
+        <v>524.5</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.7048232555389404</v>
+      </c>
+      <c r="H50" s="1">
+        <v>541.33203125</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.96793365478515625</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51220703125</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52864456176757813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -10779,203 +14703,455 @@
         <v>13208</v>
       </c>
       <c r="C51" s="1">
-        <v>1.98297047615051</v>
+        <v>2.0062947273254301</v>
       </c>
       <c r="D51" s="1">
-        <v>4.6849951744079501</v>
+        <v>321.50390625</v>
       </c>
       <c r="E51" s="1">
-        <v>5.89117383956909</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>5.9542734622955296</v>
+      </c>
+      <c r="F51" s="1">
+        <v>496.84375</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6.1316204071044904</v>
+      </c>
+      <c r="H51" s="1">
+        <v>447.5390625</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31396865844726563</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.485198974609375</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43704986572265625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>36989</v>
       </c>
-      <c r="C52">
-        <v>2.573109627</v>
-      </c>
-      <c r="D52">
-        <v>12.20331097</v>
-      </c>
-      <c r="E52">
-        <v>7.0552160739999996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C52" s="1">
+        <v>2.4369988441467201</v>
+      </c>
+      <c r="D52" s="1">
+        <v>455.8984375</v>
+      </c>
+      <c r="E52" s="1">
+        <v>15.3409886360168</v>
+      </c>
+      <c r="F52" s="1">
+        <v>513.078125</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7.4508903026580802</v>
+      </c>
+      <c r="H52" s="1">
+        <v>503.58984375</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44521331787109375</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5010528564453125</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49178695678710938</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>30363</v>
       </c>
-      <c r="C53">
-        <v>2.9079999920000001</v>
-      </c>
-      <c r="D53">
-        <v>12.47377968</v>
-      </c>
-      <c r="E53">
-        <v>7.8468203540000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C53" s="1">
+        <v>3.1360516548156698</v>
+      </c>
+      <c r="D53" s="1">
+        <v>568.32421875</v>
+      </c>
+      <c r="E53" s="1">
+        <v>18.000104188919</v>
+      </c>
+      <c r="F53" s="1">
+        <v>523.015625</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8.1695616245269704</v>
+      </c>
+      <c r="H53" s="1">
+        <v>614.23828125</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55500411987304688</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5107574462890625</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59984207153320313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>42244</v>
       </c>
-      <c r="C54">
-        <v>3.8199996949999999</v>
-      </c>
-      <c r="D54">
-        <v>15.87131381</v>
-      </c>
-      <c r="E54">
-        <v>7.5291614530000004</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C54" s="1">
+        <v>3.9820873737335201</v>
+      </c>
+      <c r="D54" s="1">
+        <v>584.8828125</v>
+      </c>
+      <c r="E54" s="1">
+        <v>20.647779941558799</v>
+      </c>
+      <c r="F54" s="1">
+        <v>503.28125</v>
+      </c>
+      <c r="G54" s="1">
+        <v>7.6558589935302699</v>
+      </c>
+      <c r="H54" s="1">
+        <v>542.74609375</v>
+      </c>
+      <c r="M54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57117462158203125</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.491485595703125</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53002548217773438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>4082</v>
       </c>
-      <c r="C55">
-        <v>0.998047829</v>
-      </c>
-      <c r="D55">
-        <v>3.0914087299999999</v>
-      </c>
-      <c r="E55">
-        <v>6.329271555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C55" s="1">
+        <v>1.01215815544128</v>
+      </c>
+      <c r="D55" s="1">
+        <v>113.27734375</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4.0745427608489901</v>
+      </c>
+      <c r="F55" s="1">
+        <v>460.14453125</v>
+      </c>
+      <c r="G55" s="1">
+        <v>6.4442942142486501</v>
+      </c>
+      <c r="H55" s="1">
+        <v>364.3828125</v>
+      </c>
+      <c r="M55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11062240600585938</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44935989379882813</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35584259033203125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>17592</v>
       </c>
-      <c r="C56">
-        <v>2.4409999849999999</v>
-      </c>
-      <c r="D56">
-        <v>6.0872344969999999</v>
-      </c>
-      <c r="E56">
-        <v>5.866123676</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C56" s="1">
+        <v>2.4541978836059499</v>
+      </c>
+      <c r="D56" s="1">
+        <v>392.1015625</v>
+      </c>
+      <c r="E56" s="1">
+        <v>8.1764683723449707</v>
+      </c>
+      <c r="F56" s="1">
+        <v>524.57421875</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6.09529280662536</v>
+      </c>
+      <c r="H56" s="1">
+        <v>437.6875</v>
+      </c>
+      <c r="M56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38291168212890625</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51227951049804688</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42742919921875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>87074</v>
       </c>
-      <c r="C57">
-        <v>6.1253395079999997</v>
-      </c>
-      <c r="D57">
-        <v>35.550877810000003</v>
-      </c>
-      <c r="E57">
-        <v>9.9886264800000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C57" s="1">
+        <v>4.3653383255004803</v>
+      </c>
+      <c r="D57" s="1">
+        <v>866.5</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42.8673095703125</v>
+      </c>
+      <c r="F57" s="1">
+        <v>511.2109375</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10.4357964992523</v>
+      </c>
+      <c r="H57" s="1">
+        <v>665.4453125</v>
+      </c>
+      <c r="M57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84619140625</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49922943115234375</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64984893798828125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>11866</v>
       </c>
-      <c r="C58">
-        <v>1.8951225279999999</v>
-      </c>
-      <c r="D58">
-        <v>5.3217663760000002</v>
-      </c>
-      <c r="E58">
-        <v>11.926639079999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C58" s="1">
+        <v>2.0661559104919398</v>
+      </c>
+      <c r="D58" s="1">
+        <v>386.9453125</v>
+      </c>
+      <c r="E58" s="1">
+        <v>6.4741349220275799</v>
+      </c>
+      <c r="F58" s="1">
+        <v>516.24609375</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7.09863233566284</v>
+      </c>
+      <c r="H58" s="1">
+        <v>482.22265625</v>
+      </c>
+      <c r="M58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37787628173828125</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50414657592773438</v>
+      </c>
+      <c r="O58" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47092056274414063</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>3884</v>
       </c>
-      <c r="C59">
-        <v>1.2832596300000001</v>
-      </c>
-      <c r="D59">
-        <v>2.6242599489999998</v>
-      </c>
-      <c r="E59">
-        <v>5.6579542160000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C59" s="1">
+        <v>1.3370604515075599</v>
+      </c>
+      <c r="D59" s="1">
+        <v>221.703125</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.8460123538970898</v>
+      </c>
+      <c r="F59" s="1">
+        <v>344.63671875</v>
+      </c>
+      <c r="G59" s="1">
+        <v>5.6652576923370299</v>
+      </c>
+      <c r="H59" s="1">
+        <v>409.2890625</v>
+      </c>
+      <c r="M59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2165069580078125</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33655929565429688</v>
+      </c>
+      <c r="O59" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39969635009765625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>56806</v>
       </c>
-      <c r="C60">
-        <v>3.934109211</v>
-      </c>
-      <c r="D60">
-        <v>19.355401990000001</v>
-      </c>
-      <c r="E60">
-        <v>7.3738005160000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C60" s="1">
+        <v>4.2859981060027996</v>
+      </c>
+      <c r="D60" s="1">
+        <v>887.015625</v>
+      </c>
+      <c r="E60" s="1">
+        <v>24.787712335586502</v>
+      </c>
+      <c r="F60" s="1">
+        <v>526.4765625</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7.8098053932189897</v>
+      </c>
+      <c r="H60" s="1">
+        <v>416.765625</v>
+      </c>
+      <c r="M60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8662261962890625</v>
+      </c>
+      <c r="N60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51413726806640625</v>
+      </c>
+      <c r="O60" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4069976806640625</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>93128</v>
       </c>
-      <c r="C61">
-        <v>6.0910122390000003</v>
-      </c>
-      <c r="D61">
-        <v>27.560915229999999</v>
-      </c>
-      <c r="E61">
-        <v>9.0391085150000006</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C61" s="1">
+        <v>6.10404276847839</v>
+      </c>
+      <c r="D61" s="1">
+        <v>915.35546875</v>
+      </c>
+      <c r="E61" s="1">
+        <v>36.859033346176098</v>
+      </c>
+      <c r="F61" s="1">
+        <v>541.22265625</v>
+      </c>
+      <c r="G61" s="1">
+        <v>9.9803102016448904</v>
+      </c>
+      <c r="H61" s="1">
+        <v>528.3125</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89390182495117188</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52853775024414063</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51593017578125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>33508</v>
       </c>
-      <c r="C62">
-        <v>3.1321504120000001</v>
-      </c>
-      <c r="D62">
-        <v>14.709585669999999</v>
-      </c>
-      <c r="E62">
-        <v>10.1871562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1">
+        <v>3.0104053020477202</v>
+      </c>
+      <c r="D62" s="1">
+        <v>463.9921875</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20.265918970108</v>
+      </c>
+      <c r="F62" s="1">
+        <v>528.80078125</v>
+      </c>
+      <c r="G62" s="1">
+        <v>10.476723909378</v>
+      </c>
+      <c r="H62" s="1">
+        <v>483.4765625</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45311737060546875</v>
+      </c>
+      <c r="N62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.51640701293945313</v>
+      </c>
+      <c r="O62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47214508056640625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
@@ -10983,16 +15159,37 @@
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>34.505926370620699</v>
+        <v>38.758410453796301</v>
       </c>
       <c r="D63" s="2">
-        <v>264.25723481178198</v>
+        <v>6829.15625</v>
       </c>
       <c r="E63" s="2">
-        <v>81.4895853996276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>352.94401621818503</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3043.01953125</v>
+      </c>
+      <c r="G63" s="2">
+        <v>74.572243452072101</v>
+      </c>
+      <c r="H63" s="2">
+        <v>2593.44921875</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="0"/>
+        <v>6.669097900390625</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9716987609863281</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5326652526855469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -11000,16 +15197,37 @@
         <v>8527</v>
       </c>
       <c r="C64" s="1">
-        <v>1.70799756050109</v>
+        <v>1.6880118846893299</v>
       </c>
       <c r="D64" s="1">
-        <v>4.3230001926422101</v>
+        <v>325.1015625</v>
       </c>
       <c r="E64" s="1">
-        <v>5.9640345573425204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5.31634068489074</v>
+      </c>
+      <c r="F64" s="1">
+        <v>499.68359375</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5.5918278694152797</v>
+      </c>
+      <c r="H64" s="1">
+        <v>334.12109375</v>
+      </c>
+      <c r="M64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31748199462890625</v>
+      </c>
+      <c r="N64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48797225952148438</v>
+      </c>
+      <c r="O64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32629013061523438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -11017,16 +15235,37 @@
         <v>44562</v>
       </c>
       <c r="C65" s="1">
-        <v>4.3509991168975803</v>
+        <v>4.0780305862426696</v>
       </c>
       <c r="D65" s="1">
-        <v>14.9420142173767</v>
+        <v>857.34375</v>
       </c>
       <c r="E65" s="1">
-        <v>7.5029995441436697</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.889749050140299</v>
+      </c>
+      <c r="F65" s="1">
+        <v>507.0234375</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7.63633060455322</v>
+      </c>
+      <c r="H65" s="1">
+        <v>541.91015625</v>
+      </c>
+      <c r="M65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.837249755859375</v>
+      </c>
+      <c r="N65" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49514007568359375</v>
+      </c>
+      <c r="O65" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52920913696289063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -11034,16 +15273,37 @@
         <v>23731</v>
       </c>
       <c r="C66" s="1">
-        <v>3.0470006465911799</v>
+        <v>3.2141692638397199</v>
       </c>
       <c r="D66" s="1">
-        <v>8.3419981002807599</v>
+        <v>571.36328125</v>
       </c>
       <c r="E66" s="1">
-        <v>8.5190417766570992</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9.9562385082244802</v>
+      </c>
+      <c r="F66" s="1">
+        <v>483.046875</v>
+      </c>
+      <c r="G66" s="1">
+        <v>8.6124916076660103</v>
+      </c>
+      <c r="H66" s="1">
+        <v>609.26171875</v>
+      </c>
+      <c r="M66" s="1">
+        <f t="shared" ref="M66:M99" si="3">$D66/1024</f>
+        <v>0.55797195434570313</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" ref="N66:N100" si="4">$F66/1024</f>
+        <v>0.4717254638671875</v>
+      </c>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O100" si="5">H66/1024</f>
+        <v>0.59498214721679688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -11051,16 +15311,37 @@
         <v>133832</v>
       </c>
       <c r="C67" s="1">
-        <v>8.9890067577362007</v>
+        <v>6.63799977302551</v>
       </c>
       <c r="D67" s="1">
-        <v>43.514152526855398</v>
+        <v>1174.171875</v>
       </c>
       <c r="E67" s="1">
-        <v>12.356580495834301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55.554232120513902</v>
+      </c>
+      <c r="F67" s="1">
+        <v>548.12109375</v>
+      </c>
+      <c r="G67" s="1">
+        <v>12.094886064529399</v>
+      </c>
+      <c r="H67" s="1">
+        <v>868.171875</v>
+      </c>
+      <c r="M67" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1466522216796875</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53527450561523438</v>
+      </c>
+      <c r="O67" s="1">
+        <f t="shared" si="5"/>
+        <v>0.8478240966796875</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -11068,16 +15349,37 @@
         <v>57838</v>
       </c>
       <c r="C68" s="1">
-        <v>5.50695347785949</v>
+        <v>5.2570695877075098</v>
       </c>
       <c r="D68" s="1">
-        <v>18.346002340316701</v>
+        <v>901.89453125</v>
       </c>
       <c r="E68" s="1">
-        <v>9.6199984550476003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23.509912014007501</v>
+      </c>
+      <c r="F68" s="1">
+        <v>491.234375</v>
+      </c>
+      <c r="G68" s="1">
+        <v>9.5141022205352694</v>
+      </c>
+      <c r="H68" s="1">
+        <v>757.57421875</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88075637817382813</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="4"/>
+        <v>0.4797210693359375</v>
+      </c>
+      <c r="O68" s="1">
+        <f t="shared" si="5"/>
+        <v>0.73981857299804688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -11085,16 +15387,37 @@
         <v>27010</v>
       </c>
       <c r="C69" s="1">
-        <v>3.4979588985443102</v>
+        <v>3.3680994510650599</v>
       </c>
       <c r="D69" s="1">
-        <v>10.539999961853001</v>
+        <v>624.97265625</v>
       </c>
       <c r="E69" s="1">
-        <v>13.044998884201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>12.5509264469146</v>
+      </c>
+      <c r="F69" s="1">
+        <v>501.6015625</v>
+      </c>
+      <c r="G69" s="1">
+        <v>8.9752140045165998</v>
+      </c>
+      <c r="H69" s="1">
+        <v>618.25</v>
+      </c>
+      <c r="M69" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61032485961914063</v>
+      </c>
+      <c r="N69" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48984527587890625</v>
+      </c>
+      <c r="O69" s="1">
+        <f t="shared" si="5"/>
+        <v>0.603759765625</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
@@ -11102,19 +15425,37 @@
         <v>5268999</v>
       </c>
       <c r="C70" s="2">
-        <v>10.6341750621795</v>
+        <v>10.861108303070001</v>
       </c>
       <c r="D70" s="2">
-        <v>677.95154023170403</v>
+        <v>3180.4609375</v>
       </c>
       <c r="E70" s="2">
-        <v>272.21950197219797</v>
-      </c>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2125.4921875</v>
+      </c>
+      <c r="G70" s="2">
+        <v>301.01347684860201</v>
+      </c>
+      <c r="H70" s="2">
+        <v>6402.2421875</v>
+      </c>
+      <c r="M70" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1059188842773438</v>
+      </c>
+      <c r="N70" s="1">
+        <f t="shared" si="4"/>
+        <v>2.0756759643554688</v>
+      </c>
+      <c r="O70" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2521896362304688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -11122,16 +15463,37 @@
         <v>23738</v>
       </c>
       <c r="C71" s="1">
-        <v>3.5290002822875901</v>
+        <v>3.35199570655822</v>
       </c>
       <c r="D71" s="1">
-        <v>9.7789998054504395</v>
+        <v>410.35546875</v>
       </c>
       <c r="E71" s="1">
-        <v>8.8761560916900599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11.6774771213531</v>
+      </c>
+      <c r="F71" s="1">
+        <v>491.2265625</v>
+      </c>
+      <c r="G71" s="1">
+        <v>8.6736624240875209</v>
+      </c>
+      <c r="H71" s="1">
+        <v>707.65234375</v>
+      </c>
+      <c r="M71" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40073776245117188</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47971343994140625</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="5"/>
+        <v>0.69106674194335938</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -11139,16 +15501,37 @@
         <v>19716</v>
       </c>
       <c r="C72" s="1">
-        <v>2.5719628334045401</v>
+        <v>2.6085851192474299</v>
       </c>
       <c r="D72" s="1">
-        <v>8.7275850772857595</v>
+        <v>496.7578125</v>
       </c>
       <c r="E72" s="1">
-        <v>6.1890330314636204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10.653274059295599</v>
+      </c>
+      <c r="F72" s="1">
+        <v>506.78125</v>
+      </c>
+      <c r="G72" s="1">
+        <v>6.2044584751129097</v>
+      </c>
+      <c r="H72" s="1">
+        <v>429.91796875</v>
+      </c>
+      <c r="M72" s="1">
+        <f t="shared" si="3"/>
+        <v>0.48511505126953125</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="4"/>
+        <v>0.494903564453125</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41984176635742188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -11156,16 +15539,37 @@
         <v>18440</v>
       </c>
       <c r="C73" s="1">
-        <v>2.4459636211395201</v>
+        <v>2.49519443511962</v>
       </c>
       <c r="D73" s="1">
-        <v>6.8865795135498002</v>
+        <v>441.17578125</v>
       </c>
       <c r="E73" s="1">
-        <v>6.4814150333404497</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8.3690016269683802</v>
+      </c>
+      <c r="F73" s="1">
+        <v>518.83984375</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6.3689858913421604</v>
+      </c>
+      <c r="H73" s="1">
+        <v>452.08203125</v>
+      </c>
+      <c r="M73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43083572387695313</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50667953491210938</v>
+      </c>
+      <c r="O73" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44148635864257813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -11173,16 +15577,37 @@
         <v>536713</v>
       </c>
       <c r="C74" s="1">
-        <v>25.2412204742431</v>
+        <v>15.6722071170806</v>
       </c>
       <c r="D74" s="1">
-        <v>197.104053497314</v>
+        <v>2617.421875</v>
       </c>
       <c r="E74" s="1">
-        <v>39.063483953475902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>238.251750707626</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1419.21484375</v>
+      </c>
+      <c r="G74" s="1">
+        <v>34.860689640045102</v>
+      </c>
+      <c r="H74" s="1">
+        <v>1622.58203125</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5560760498046875</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3859519958496094</v>
+      </c>
+      <c r="O74" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5845527648925781</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -11190,16 +15615,37 @@
         <v>30825</v>
       </c>
       <c r="C75" s="1">
-        <v>3.71994876861572</v>
+        <v>3.6378617286682098</v>
       </c>
       <c r="D75" s="1">
-        <v>15.439436435699401</v>
+        <v>769.16015625</v>
       </c>
       <c r="E75" s="1">
-        <v>6.6269993782043404</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18.608005762100198</v>
+      </c>
+      <c r="F75" s="1">
+        <v>500.03515625</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6.5706684589385898</v>
+      </c>
+      <c r="H75" s="1">
+        <v>410.5078125</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="3"/>
+        <v>0.75113296508789063</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48831558227539063</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40088653564453125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -11207,16 +15653,37 @@
         <v>350643</v>
       </c>
       <c r="C76" s="1">
-        <v>12.746997594833299</v>
+        <v>12.918401956558199</v>
       </c>
       <c r="D76" s="1">
-        <v>109.625307083129</v>
+        <v>1919.921875</v>
       </c>
       <c r="E76" s="1">
-        <v>29.990383148193299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144.70676159858701</v>
+      </c>
+      <c r="F76" s="1">
+        <v>911.8984375</v>
+      </c>
+      <c r="G76" s="1">
+        <v>35.3082625865936</v>
+      </c>
+      <c r="H76" s="1">
+        <v>1522.6953125</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8749237060546875</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="4"/>
+        <v>0.89052581787109375</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="5"/>
+        <v>1.4870071411132813</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -11224,16 +15691,37 @@
         <v>3292</v>
       </c>
       <c r="C77" s="1">
-        <v>1.1970012187957699</v>
+        <v>1.2242734432220399</v>
       </c>
       <c r="D77" s="1">
-        <v>3.2150001525878902</v>
+        <v>180.00390625</v>
       </c>
       <c r="E77" s="1">
-        <v>6.6100332736968896</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2.5192413330078098</v>
+      </c>
+      <c r="F77" s="1">
+        <v>356.65234375</v>
+      </c>
+      <c r="G77" s="1">
+        <v>5.5121476650238002</v>
+      </c>
+      <c r="H77" s="1">
+        <v>381.234375</v>
+      </c>
+      <c r="M77" s="1">
+        <f t="shared" si="3"/>
+        <v>0.17578506469726563</v>
+      </c>
+      <c r="N77" s="1">
+        <f t="shared" si="4"/>
+        <v>0.34829330444335938</v>
+      </c>
+      <c r="O77" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3722991943359375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -11241,16 +15729,37 @@
         <v>32241</v>
       </c>
       <c r="C78" s="1">
-        <v>3.25358533859252</v>
+        <v>3.1002900600433301</v>
       </c>
       <c r="D78" s="1">
-        <v>11.7610006332397</v>
+        <v>666.265625</v>
       </c>
       <c r="E78" s="1">
-        <v>6.7380340099334699</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14.5892524719238</v>
+      </c>
+      <c r="F78" s="1">
+        <v>571.0078125</v>
+      </c>
+      <c r="G78" s="1">
+        <v>5.2063307762145996</v>
+      </c>
+      <c r="H78" s="1">
+        <v>421.08203125</v>
+      </c>
+      <c r="M78" s="1">
+        <f t="shared" si="3"/>
+        <v>0.6506500244140625</v>
+      </c>
+      <c r="N78" s="1">
+        <f t="shared" si="4"/>
+        <v>0.55762481689453125</v>
+      </c>
+      <c r="O78" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41121292114257813</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -11258,16 +15767,37 @@
         <v>35698</v>
       </c>
       <c r="C79" s="1">
-        <v>3.6300017833709699</v>
+        <v>3.59800124168396</v>
       </c>
       <c r="D79" s="1">
-        <v>12.741996526718101</v>
+        <v>663.2421875</v>
       </c>
       <c r="E79" s="1">
-        <v>7.7390003204345703</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15.563873529434201</v>
+      </c>
+      <c r="F79" s="1">
+        <v>518.59765625</v>
+      </c>
+      <c r="G79" s="1">
+        <v>7.6412057876586896</v>
+      </c>
+      <c r="H79" s="1">
+        <v>547.5859375</v>
+      </c>
+      <c r="M79" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64769744873046875</v>
+      </c>
+      <c r="N79" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50644302368164063</v>
+      </c>
+      <c r="O79" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53475189208984375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -11275,16 +15805,37 @@
         <v>38169</v>
       </c>
       <c r="C80" s="1">
-        <v>4.15700030326843</v>
+        <v>3.9180002212524401</v>
       </c>
       <c r="D80" s="1">
-        <v>13.256000280380199</v>
+        <v>798.65625</v>
       </c>
       <c r="E80" s="1">
-        <v>8.0551345348358101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>17.0148508548736</v>
+      </c>
+      <c r="F80" s="1">
+        <v>497.1875</v>
+      </c>
+      <c r="G80" s="1">
+        <v>8.2443354129791206</v>
+      </c>
+      <c r="H80" s="1">
+        <v>524.58203125</v>
+      </c>
+      <c r="M80" s="1">
+        <f t="shared" si="3"/>
+        <v>0.779937744140625</v>
+      </c>
+      <c r="N80" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48553466796875</v>
+      </c>
+      <c r="O80" s="1">
+        <f t="shared" si="5"/>
+        <v>0.51228713989257813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -11292,16 +15843,37 @@
         <v>88506</v>
       </c>
       <c r="C81" s="1">
-        <v>5.5999999046325604</v>
+        <v>5.3220515251159597</v>
       </c>
       <c r="D81" s="1">
-        <v>33.805386066436697</v>
+        <v>665.40234375</v>
       </c>
       <c r="E81" s="1">
-        <v>13.6441786289215</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>54.401310920715297</v>
+      </c>
+      <c r="F81" s="1">
+        <v>537.0625</v>
+      </c>
+      <c r="G81" s="1">
+        <v>14.053188085556</v>
+      </c>
+      <c r="H81" s="1">
+        <v>1048.79296875</v>
+      </c>
+      <c r="M81" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64980697631835938</v>
+      </c>
+      <c r="N81" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52447509765625</v>
+      </c>
+      <c r="O81" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0242118835449219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -11309,16 +15881,37 @@
         <v>7901</v>
       </c>
       <c r="C82" s="1">
-        <v>1.6940000057220399</v>
+        <v>1.68601751327514</v>
       </c>
       <c r="D82" s="1">
-        <v>4.3050000667572004</v>
+        <v>297.65234375</v>
       </c>
       <c r="E82" s="1">
-        <v>5.6630399227142298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9.3216531276702792</v>
+      </c>
+      <c r="F82" s="1">
+        <v>550.6875</v>
+      </c>
+      <c r="G82" s="1">
+        <v>6.5291159152984601</v>
+      </c>
+      <c r="H82" s="1">
+        <v>355.85546875</v>
+      </c>
+      <c r="M82" s="1">
+        <f t="shared" si="3"/>
+        <v>0.29067611694335938</v>
+      </c>
+      <c r="N82" s="1">
+        <f t="shared" si="4"/>
+        <v>0.53778076171875</v>
+      </c>
+      <c r="O82" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34751510620117188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -11326,16 +15919,37 @@
         <v>15864</v>
       </c>
       <c r="C83" s="1">
-        <v>2.9360001087188698</v>
+        <v>2.9021201133728001</v>
       </c>
       <c r="D83" s="1">
-        <v>7.3039999008178702</v>
+        <v>482.6328125</v>
       </c>
       <c r="E83" s="1">
-        <v>7.9830474853515598</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12.429146528244001</v>
+      </c>
+      <c r="F83" s="1">
+        <v>491.91015625</v>
+      </c>
+      <c r="G83" s="1">
+        <v>8.0937952995300293</v>
+      </c>
+      <c r="H83" s="1">
+        <v>580.47265625</v>
+      </c>
+      <c r="M83" s="1">
+        <f t="shared" si="3"/>
+        <v>0.47132110595703125</v>
+      </c>
+      <c r="N83" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48038101196289063</v>
+      </c>
+      <c r="O83" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56686782836914063</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -11343,16 +15957,37 @@
         <v>72154</v>
       </c>
       <c r="C84" s="1">
-        <v>6.15699887275695</v>
+        <v>5.7301974296569798</v>
       </c>
       <c r="D84" s="1">
-        <v>22.219699859619102</v>
+        <v>901.94140625</v>
       </c>
       <c r="E84" s="1">
-        <v>9.2680337429046595</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28.3952457904815</v>
+      </c>
+      <c r="F84" s="1">
+        <v>514.48828125</v>
+      </c>
+      <c r="G84" s="1">
+        <v>9.2719011306762695</v>
+      </c>
+      <c r="H84" s="1">
+        <v>866.21875</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88080215454101563</v>
+      </c>
+      <c r="N84" s="1">
+        <f t="shared" si="4"/>
+        <v>0.50242996215820313</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="5"/>
+        <v>0.845916748046875</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -11360,16 +15995,37 @@
         <v>12659</v>
       </c>
       <c r="C85" s="1">
-        <v>1.83699822425842</v>
+        <v>1.8160643577575599</v>
       </c>
       <c r="D85" s="1">
-        <v>5.9229996204376203</v>
+        <v>266.92578125</v>
       </c>
       <c r="E85" s="1">
-        <v>5.5636715888976997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.7992877960204998</v>
+      </c>
+      <c r="F85" s="1">
+        <v>473.38671875</v>
+      </c>
+      <c r="G85" s="1">
+        <v>5.5094969272613499</v>
+      </c>
+      <c r="H85" s="1">
+        <v>326.9765625</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26066970825195313</v>
+      </c>
+      <c r="N85" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46229171752929688</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="5"/>
+        <v>0.31931304931640625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -11377,16 +16033,37 @@
         <v>466846</v>
       </c>
       <c r="C86" s="1">
-        <v>13.690000295639001</v>
+        <v>14.0357272624969</v>
       </c>
       <c r="D86" s="1">
-        <v>138.74384546279899</v>
+        <v>2225.0625</v>
       </c>
       <c r="E86" s="1">
-        <v>34.951096773147498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>164.78805088996799</v>
+      </c>
+      <c r="F86" s="1">
+        <v>852.828125</v>
+      </c>
+      <c r="G86" s="1">
+        <v>29.711045503616301</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1858.38671875</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="3"/>
+        <v>2.17291259765625</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" si="4"/>
+        <v>0.8328399658203125</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="5"/>
+        <v>1.8148307800292969</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -11394,16 +16071,37 @@
         <v>14940</v>
       </c>
       <c r="C87" s="1">
-        <v>2.0909996032714799</v>
+        <v>2.1170303821563698</v>
       </c>
       <c r="D87" s="1">
-        <v>5.7901923656463596</v>
+        <v>396.82421875</v>
       </c>
       <c r="E87" s="1">
-        <v>5.6890342235565097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.0082340240478498</v>
+      </c>
+      <c r="F87" s="1">
+        <v>496.44140625</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5.6604816913604701</v>
+      </c>
+      <c r="H87" s="1">
+        <v>366.3359375</v>
+      </c>
+      <c r="M87" s="1">
+        <f t="shared" si="3"/>
+        <v>0.38752365112304688</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48480606079101563</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35774993896484375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -11411,16 +16109,37 @@
         <v>116459</v>
       </c>
       <c r="C88" s="1">
-        <v>7.1140000820159903</v>
+        <v>7.3989987373351997</v>
       </c>
       <c r="D88" s="1">
-        <v>37.234102725982602</v>
+        <v>1169.95703125</v>
       </c>
       <c r="E88" s="1">
-        <v>12.646240472793499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>45.750847578048699</v>
+      </c>
+      <c r="F88" s="1">
+        <v>537.01171875</v>
+      </c>
+      <c r="G88" s="1">
+        <v>12.875370740890499</v>
+      </c>
+      <c r="H88" s="1">
+        <v>863.5625</v>
+      </c>
+      <c r="M88" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1425361633300781</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="4"/>
+        <v>0.52442550659179688</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="5"/>
+        <v>0.84332275390625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -11428,16 +16147,37 @@
         <v>13112</v>
       </c>
       <c r="C89" s="1">
-        <v>2.3049666881561199</v>
+        <v>2.1841945648193302</v>
       </c>
       <c r="D89" s="1">
-        <v>5.6980009078979403</v>
+        <v>426.7734375</v>
       </c>
       <c r="E89" s="1">
-        <v>6.5644207000732404</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6.9009931087493896</v>
+      </c>
+      <c r="F89" s="1">
+        <v>555.77734375</v>
+      </c>
+      <c r="G89" s="1">
+        <v>6.41591143608093</v>
+      </c>
+      <c r="H89" s="1">
+        <v>460.95703125</v>
+      </c>
+      <c r="M89" s="1">
+        <f t="shared" si="3"/>
+        <v>0.41677093505859375</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="4"/>
+        <v>0.54275131225585938</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45015335083007813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -11445,16 +16185,37 @@
         <v>8666</v>
       </c>
       <c r="C90" s="1">
-        <v>1.5259642601013099</v>
+        <v>1.6359999179839999</v>
       </c>
       <c r="D90" s="1">
-        <v>4.2151293754577601</v>
+        <v>265.25390625</v>
       </c>
       <c r="E90" s="1">
-        <v>5.3370335102081299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.0266683101653999</v>
+      </c>
+      <c r="F90" s="1">
+        <v>488.93359375</v>
+      </c>
+      <c r="G90" s="1">
+        <v>3.9060657024383501</v>
+      </c>
+      <c r="H90" s="1">
+        <v>110.01953125</v>
+      </c>
+      <c r="M90" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25903701782226563</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47747421264648438</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10744094848632813</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -11462,149 +16223,376 @@
         <v>7065</v>
       </c>
       <c r="C91" s="1">
-        <v>1.75696992874145</v>
+        <v>1.6930015087127599</v>
       </c>
       <c r="D91" s="1">
-        <v>3.8109998703002899</v>
+        <v>270.35546875</v>
       </c>
       <c r="E91" s="1">
-        <v>5.4419999122619602</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+        <v>4.4439985752105704</v>
+      </c>
+      <c r="F91" s="1">
+        <v>503.5625</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5.5167768001556396</v>
+      </c>
+      <c r="H91" s="1">
+        <v>299.01953125</v>
+      </c>
+      <c r="M91" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26401901245117188</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.49176025390625</v>
+      </c>
+      <c r="O91" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29201126098632813</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>3343879</v>
       </c>
-      <c r="C92" s="1">
-        <v>89.947515249252305</v>
-      </c>
-      <c r="D92" s="1">
-        <v>942.57759833335797</v>
-      </c>
-      <c r="E92" s="1">
-        <v>142.51513028144799</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C92" s="2">
+        <v>123.81024336814799</v>
+      </c>
+      <c r="D92" s="2">
+        <v>8528.125</v>
+      </c>
+      <c r="E92" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1651.18359375</v>
+      </c>
+      <c r="G92" s="2">
+        <v>148.79622912406899</v>
+      </c>
+      <c r="H92" s="2">
+        <v>6463.48046875</v>
+      </c>
+      <c r="M92" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3282470703125</v>
+      </c>
+      <c r="N92" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6124839782714844</v>
+      </c>
+      <c r="O92" s="1">
+        <f t="shared" si="5"/>
+        <v>6.3119926452636719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" s="1">
+        <v>728553</v>
+      </c>
+      <c r="C93" s="1">
+        <v>31.9408729076385</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4956.453125</v>
+      </c>
+      <c r="E93" s="1">
+        <v>253.155374526977</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1827.1171875</v>
+      </c>
+      <c r="G93" s="1">
+        <v>21.5963518619537</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1980.84375</v>
+      </c>
+      <c r="M93" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8402862548828125</v>
+      </c>
+      <c r="N93" s="1">
+        <f t="shared" si="4"/>
+        <v>1.7842941284179688</v>
+      </c>
+      <c r="O93" s="1">
+        <f t="shared" si="5"/>
+        <v>1.934417724609375</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B94" s="1">
         <v>668337</v>
       </c>
-      <c r="C93" s="1">
-        <v>20.7830357551574</v>
-      </c>
-      <c r="D93" s="1">
-        <v>251.74808621406501</v>
-      </c>
-      <c r="E93" s="1">
-        <v>57.298087835311797</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="C94" s="1">
+        <v>19.551340341567901</v>
+      </c>
+      <c r="D94" s="1">
+        <v>2715.75390625</v>
+      </c>
+      <c r="E94" s="1">
+        <v>265.39256882667502</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1181.953125</v>
+      </c>
+      <c r="G94" s="1">
+        <v>52.196402788162203</v>
+      </c>
+      <c r="H94" s="1">
+        <v>2684.40234375</v>
+      </c>
+      <c r="M94" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6521034240722656</v>
+      </c>
+      <c r="N94" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1542510986328125</v>
+      </c>
+      <c r="O94" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6214866638183594</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B95" s="1">
         <v>9055</v>
       </c>
-      <c r="C94" s="1">
-        <v>1.68807721138</v>
-      </c>
-      <c r="D94" s="1">
-        <v>5.9639484882354701</v>
-      </c>
-      <c r="E94" s="1">
-        <v>5.5309979915618896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="C95" s="1">
+        <v>1.90443015098571</v>
+      </c>
+      <c r="D95" s="1">
+        <v>263.0078125</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7.4088635444641104</v>
+      </c>
+      <c r="F95" s="1">
+        <v>547.25</v>
+      </c>
+      <c r="G95" s="1">
+        <v>7.2904367446899396</v>
+      </c>
+      <c r="H95" s="1">
+        <v>300.4453125</v>
+      </c>
+      <c r="M95" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25684356689453125</v>
+      </c>
+      <c r="N95" s="1">
+        <f t="shared" si="4"/>
+        <v>0.534423828125</v>
+      </c>
+      <c r="O95" s="1">
+        <f t="shared" si="5"/>
+        <v>0.29340362548828125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B96" s="1">
         <v>38339</v>
       </c>
-      <c r="C95" s="1">
-        <v>3.6592099666595401</v>
-      </c>
-      <c r="D95" s="1">
-        <v>14.9439918994903</v>
-      </c>
-      <c r="E95" s="1">
-        <v>7.3293263912200901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="C96" s="1">
+        <v>3.5522825717925999</v>
+      </c>
+      <c r="D96" s="1">
+        <v>549.80859375</v>
+      </c>
+      <c r="E96" s="1">
+        <v>14.513509988784699</v>
+      </c>
+      <c r="F96" s="1">
+        <v>484.74609375</v>
+      </c>
+      <c r="G96" s="1">
+        <v>7.4116463661193803</v>
+      </c>
+      <c r="H96" s="1">
+        <v>548.37890625</v>
+      </c>
+      <c r="M96" s="1">
+        <f t="shared" si="3"/>
+        <v>0.53692245483398438</v>
+      </c>
+      <c r="N96" s="1">
+        <f t="shared" si="4"/>
+        <v>0.47338485717773438</v>
+      </c>
+      <c r="O96" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53552627563476563</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B97" s="1">
         <v>5219</v>
       </c>
-      <c r="C96" s="1">
-        <v>1.25500059127807</v>
-      </c>
-      <c r="D96" s="1">
-        <v>3.6579992771148602</v>
-      </c>
-      <c r="E96" s="1">
-        <v>5.2430381774902299</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="C97" s="1">
+        <v>1.30917048454284</v>
+      </c>
+      <c r="D97" s="1">
+        <v>210.9375</v>
+      </c>
+      <c r="E97" s="1">
+        <v>3.40801978111267</v>
+      </c>
+      <c r="F97" s="1">
+        <v>317.31640625</v>
+      </c>
+      <c r="G97" s="1">
+        <v>5.2295689582824698</v>
+      </c>
+      <c r="H97" s="1">
+        <v>288.12890625</v>
+      </c>
+      <c r="M97" s="1">
+        <f t="shared" si="3"/>
+        <v>0.20599365234375</v>
+      </c>
+      <c r="N97" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30987930297851563</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28137588500976563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B98" s="1">
         <v>11646</v>
       </c>
-      <c r="C97" s="1">
-        <v>1.8710064888000399</v>
-      </c>
-      <c r="D97" s="1">
-        <v>6.4039924144744802</v>
-      </c>
-      <c r="E97" s="1">
-        <v>5.7010352611541704</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="C98" s="1">
+        <v>1.83504986763</v>
+      </c>
+      <c r="D98" s="1">
+        <v>279.9609375</v>
+      </c>
+      <c r="E98" s="1">
+        <v>6.1472885608673096</v>
+      </c>
+      <c r="F98" s="1">
+        <v>480.44921875</v>
+      </c>
+      <c r="G98" s="1">
+        <v>5.6863884925842196</v>
+      </c>
+      <c r="H98" s="1">
+        <v>316.87890625</v>
+      </c>
+      <c r="M98" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27339935302734375</v>
+      </c>
+      <c r="N98" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46918869018554688</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="5"/>
+        <v>0.30945205688476563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B99" s="1">
         <v>215349</v>
       </c>
-      <c r="C98" s="1">
-        <v>10.9590101242065</v>
-      </c>
-      <c r="D98" s="1">
-        <v>87.387968301773</v>
-      </c>
-      <c r="E98" s="1">
-        <v>15.694047212600699</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="C99" s="1">
+        <v>11.172178745269701</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1744.23046875</v>
+      </c>
+      <c r="E99" s="1">
+        <v>82.935874223709106</v>
+      </c>
+      <c r="F99" s="1">
+        <v>684.46484375</v>
+      </c>
+      <c r="G99" s="1">
+        <v>15.322677850723201</v>
+      </c>
+      <c r="H99" s="1">
+        <v>911.4296875</v>
+      </c>
+      <c r="M99" s="1">
+        <f t="shared" si="3"/>
+        <v>1.7033500671386719</v>
+      </c>
+      <c r="N99" s="1">
+        <f t="shared" si="4"/>
+        <v>0.66842269897460938</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89006805419921875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B100" s="1">
         <v>9727</v>
       </c>
-      <c r="C99" s="1">
-        <v>1.9019973278045601</v>
-      </c>
-      <c r="D99" s="1">
-        <v>5.4210021495819003</v>
-      </c>
-      <c r="E99" s="1">
-        <v>6.0699963569641104</v>
+      <c r="C100" s="1">
+        <v>1.9810495376586901</v>
+      </c>
+      <c r="D100" s="1">
+        <v>267.01171875</v>
+      </c>
+      <c r="E100" s="1">
+        <v>5.1688573360443097</v>
+      </c>
+      <c r="F100" s="1">
+        <v>498.2578125</v>
+      </c>
+      <c r="G100" s="1">
+        <v>5.9361600875854403</v>
+      </c>
+      <c r="H100" s="1">
+        <v>343.22265625</v>
+      </c>
+      <c r="M100" s="1">
+        <f>$D100/1024</f>
+        <v>0.26075363159179688</v>
+      </c>
+      <c r="N100" s="1">
+        <f t="shared" si="4"/>
+        <v>0.48657989501953125</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33517837524414063</v>
       </c>
     </row>
   </sheetData>
